--- a/_CIPW/CIPW/AREA2a/QAPF_control_points.xlsx
+++ b/_CIPW/CIPW/AREA2a/QAPF_control_points.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,13 +415,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B2" t="n">
-        <v>718647.8195650978</v>
+        <v>755477.6687137495</v>
       </c>
       <c r="C2" t="n">
-        <v>5235770.178160767</v>
+        <v>5262227.041538754</v>
       </c>
       <c r="D2" t="n">
         <v>53</v>
@@ -435,13 +435,13 @@
         <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>52.5495071</v>
+        <v>41.0442467</v>
       </c>
       <c r="H2" t="n">
-        <v>17.91281806</v>
+        <v>25.81878908</v>
       </c>
       <c r="I2" t="n">
-        <v>22.93120235</v>
+        <v>29.73104233</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -451,13 +451,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B3" t="n">
-        <v>731796.073283496</v>
+        <v>718647.8195650978</v>
       </c>
       <c r="C3" t="n">
-        <v>5259752.410802962</v>
+        <v>5235770.178160767</v>
       </c>
       <c r="D3" t="n">
         <v>53</v>
@@ -471,13 +471,13 @@
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>45.9404335</v>
+        <v>39.8870506</v>
       </c>
       <c r="H3" t="n">
-        <v>19.08638361</v>
+        <v>27.689472643</v>
       </c>
       <c r="I3" t="n">
-        <v>32.35765284</v>
+        <v>28.22197834</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -487,13 +487,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="B4" t="n">
-        <v>755477.6297093385</v>
+        <v>731796.073283496</v>
       </c>
       <c r="C4" t="n">
-        <v>5262226.978246189</v>
+        <v>5259752.410802962</v>
       </c>
       <c r="D4" t="n">
         <v>53</v>
@@ -507,29 +507,29 @@
         <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>50.7399864</v>
+        <v>37.5276413</v>
       </c>
       <c r="H4" t="n">
-        <v>6.408381031</v>
+        <v>27.83552926</v>
       </c>
       <c r="I4" t="n">
-        <v>37.371889561</v>
+        <v>31.300823</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="B5" t="n">
-        <v>734741.9172039592</v>
+        <v>755477.6297093385</v>
       </c>
       <c r="C5" t="n">
-        <v>5301091.648253272</v>
+        <v>5262226.978246189</v>
       </c>
       <c r="D5" t="n">
         <v>53</v>
@@ -543,13 +543,13 @@
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>41.4071159</v>
+        <v>44.1702538</v>
       </c>
       <c r="H5" t="n">
-        <v>23.23236069</v>
+        <v>24.15908739</v>
       </c>
       <c r="I5" t="n">
-        <v>27.59011291</v>
+        <v>26.0967672</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -559,13 +559,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="B6" t="n">
-        <v>661219.8274655768</v>
+        <v>734741.9172039592</v>
       </c>
       <c r="C6" t="n">
-        <v>5226625.146162503</v>
+        <v>5301091.648253272</v>
       </c>
       <c r="D6" t="n">
         <v>53</v>
@@ -579,13 +579,13 @@
         <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>54.6330299</v>
+        <v>40.3391991</v>
       </c>
       <c r="H6" t="n">
-        <v>17.94556316</v>
+        <v>24.016544315</v>
       </c>
       <c r="I6" t="n">
-        <v>19.7448489</v>
+        <v>30.96592689</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -595,13 +595,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="B7" t="n">
-        <v>730112.9319859321</v>
+        <v>661219.8274655768</v>
       </c>
       <c r="C7" t="n">
-        <v>5299405.369685669</v>
+        <v>5226625.146162503</v>
       </c>
       <c r="D7" t="n">
         <v>53</v>
@@ -615,13 +615,13 @@
         <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>44.2663574</v>
+        <v>36.8711166</v>
       </c>
       <c r="H7" t="n">
-        <v>25.08967019</v>
+        <v>25.5828675</v>
       </c>
       <c r="I7" t="n">
-        <v>25.70468251</v>
+        <v>33.74021281</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -631,13 +631,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="B8" t="n">
-        <v>735030.0075722616</v>
+        <v>730112.9319859321</v>
       </c>
       <c r="C8" t="n">
-        <v>5254507.567964282</v>
+        <v>5299405.369685669</v>
       </c>
       <c r="D8" t="n">
         <v>53</v>
@@ -651,13 +651,13 @@
         <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>43.9374886</v>
+        <v>39.2541389</v>
       </c>
       <c r="H8" t="n">
-        <v>28.83222888</v>
+        <v>24.40651868</v>
       </c>
       <c r="I8" t="n">
-        <v>23.94593773</v>
+        <v>32.37864092</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -667,13 +667,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>243</v>
       </c>
       <c r="B9" t="n">
-        <v>718983.8487587002</v>
+        <v>735030.0075722616</v>
       </c>
       <c r="C9" t="n">
-        <v>5235161.029622068</v>
+        <v>5254507.567964282</v>
       </c>
       <c r="D9" t="n">
         <v>53</v>
@@ -687,29 +687,29 @@
         <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>55.6655121</v>
+        <v>36.3587151</v>
       </c>
       <c r="H9" t="n">
-        <v>16.85702076</v>
+        <v>34.82427912</v>
       </c>
       <c r="I9" t="n">
-        <v>19.69759538</v>
+        <v>25.34485454</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>quartz-rich granitoid</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="B10" t="n">
-        <v>717856.1514845326</v>
+        <v>718983.8487587002</v>
       </c>
       <c r="C10" t="n">
-        <v>5234510.204816152</v>
+        <v>5235161.029622068</v>
       </c>
       <c r="D10" t="n">
         <v>53</v>
@@ -723,13 +723,13 @@
         <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>47.0682907</v>
+        <v>33.5214615</v>
       </c>
       <c r="H10" t="n">
-        <v>20.36187018</v>
+        <v>31.95207019</v>
       </c>
       <c r="I10" t="n">
-        <v>25.34082052</v>
+        <v>31.17560886</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -739,13 +739,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>424</v>
       </c>
       <c r="B11" t="n">
-        <v>669453.0630143925</v>
+        <v>717856.1514845326</v>
       </c>
       <c r="C11" t="n">
-        <v>5207806.148476244</v>
+        <v>5234510.204816152</v>
       </c>
       <c r="D11" t="n">
         <v>53</v>
@@ -759,13 +759,13 @@
         <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>43.176609</v>
+        <v>34.1876945</v>
       </c>
       <c r="H11" t="n">
-        <v>23.08839618</v>
+        <v>30.144377286</v>
       </c>
       <c r="I11" t="n">
-        <v>30.23091865</v>
+        <v>30.49064143</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -775,13 +775,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>425</v>
       </c>
       <c r="B12" t="n">
-        <v>734114.8021841769</v>
+        <v>669453.0630143925</v>
       </c>
       <c r="C12" t="n">
-        <v>5251854.17618814</v>
+        <v>5207806.148476244</v>
       </c>
       <c r="D12" t="n">
         <v>53</v>
@@ -795,13 +795,13 @@
         <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>41.1543427</v>
+        <v>37.6722069</v>
       </c>
       <c r="H12" t="n">
-        <v>26.50388061</v>
+        <v>29.56021721</v>
       </c>
       <c r="I12" t="n">
-        <v>28.94276394</v>
+        <v>27.05127601</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -811,13 +811,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>464</v>
       </c>
       <c r="B13" t="n">
-        <v>714110.9345582047</v>
+        <v>734114.8021841769</v>
       </c>
       <c r="C13" t="n">
-        <v>5236066.83764874</v>
+        <v>5251854.17618814</v>
       </c>
       <c r="D13" t="n">
         <v>53</v>
@@ -831,13 +831,13 @@
         <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>46.4283485</v>
+        <v>39.3296967</v>
       </c>
       <c r="H13" t="n">
-        <v>23.57185782</v>
+        <v>23.80377152</v>
       </c>
       <c r="I13" t="n">
-        <v>26.29028945</v>
+        <v>31.98435131</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -847,13 +847,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>474</v>
       </c>
       <c r="B14" t="n">
-        <v>755482.2170240968</v>
+        <v>714110.9345582047</v>
       </c>
       <c r="C14" t="n">
-        <v>5262234.42210809</v>
+        <v>5236066.83764874</v>
       </c>
       <c r="D14" t="n">
         <v>53</v>
@@ -867,13 +867,13 @@
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>42.565918</v>
+        <v>33.2873268</v>
       </c>
       <c r="H14" t="n">
-        <v>29.622711602</v>
+        <v>30.61536593</v>
       </c>
       <c r="I14" t="n">
-        <v>23.51210286</v>
+        <v>30.95144348</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -883,13 +883,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>485</v>
       </c>
       <c r="B15" t="n">
-        <v>718235.6312097848</v>
+        <v>755482.2170240968</v>
       </c>
       <c r="C15" t="n">
-        <v>5235440.908779616</v>
+        <v>5262234.42210809</v>
       </c>
       <c r="D15" t="n">
         <v>53</v>
@@ -903,13 +903,13 @@
         <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>36.5084763</v>
+        <v>36.6988602</v>
       </c>
       <c r="H15" t="n">
-        <v>32.99593104800001</v>
+        <v>29.46588871</v>
       </c>
       <c r="I15" t="n">
-        <v>27.84845204</v>
+        <v>28.95812011</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -919,13 +919,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>509</v>
       </c>
       <c r="B16" t="n">
-        <v>716231.6166438259</v>
+        <v>718235.6312097848</v>
       </c>
       <c r="C16" t="n">
-        <v>5232580.088521136</v>
+        <v>5235440.908779616</v>
       </c>
       <c r="D16" t="n">
         <v>53</v>
@@ -939,13 +939,13 @@
         <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>42.2152519</v>
+        <v>33.2711411</v>
       </c>
       <c r="H16" t="n">
-        <v>25.20435434</v>
+        <v>29.90002276</v>
       </c>
       <c r="I16" t="n">
-        <v>29.46938077</v>
+        <v>32.16048562</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -955,13 +955,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>511</v>
       </c>
       <c r="B17" t="n">
-        <v>648932.4833088869</v>
+        <v>716231.6166438259</v>
       </c>
       <c r="C17" t="n">
-        <v>5188032.710563428</v>
+        <v>5232580.088521136</v>
       </c>
       <c r="D17" t="n">
         <v>53</v>
@@ -975,13 +975,13 @@
         <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>40.7807312</v>
+        <v>36.0223999</v>
       </c>
       <c r="H17" t="n">
-        <v>33.10163585</v>
+        <v>29.55125113</v>
       </c>
       <c r="I17" t="n">
-        <v>20.12792172</v>
+        <v>28.8114662</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -991,13 +991,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>588</v>
       </c>
       <c r="B18" t="n">
-        <v>725210.8848847866</v>
+        <v>648932.4833088869</v>
       </c>
       <c r="C18" t="n">
-        <v>5297088.682107284</v>
+        <v>5188032.710563428</v>
       </c>
       <c r="D18" t="n">
         <v>53</v>
@@ -1011,13 +1011,13 @@
         <v>6</v>
       </c>
       <c r="G18" t="n">
-        <v>40.3328285</v>
+        <v>36.7744713</v>
       </c>
       <c r="H18" t="n">
-        <v>28.03048076</v>
+        <v>26.89448922</v>
       </c>
       <c r="I18" t="n">
-        <v>26.58559136</v>
+        <v>32.23319492</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>669</v>
       </c>
       <c r="B19" t="n">
-        <v>656834.720858862</v>
+        <v>725210.8848847866</v>
       </c>
       <c r="C19" t="n">
-        <v>5185601.830926627</v>
+        <v>5297088.682107284</v>
       </c>
       <c r="D19" t="n">
         <v>53</v>
@@ -1047,13 +1047,13 @@
         <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>38.571064</v>
+        <v>34.7741203</v>
       </c>
       <c r="H19" t="n">
-        <v>29.62404541</v>
+        <v>30.64289979</v>
       </c>
       <c r="I19" t="n">
-        <v>28.67475506</v>
+        <v>29.81911104</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1063,13 +1063,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>677</v>
       </c>
       <c r="B20" t="n">
-        <v>748890.5088094025</v>
+        <v>656834.720858862</v>
       </c>
       <c r="C20" t="n">
-        <v>5257301.970883464</v>
+        <v>5185601.830926627</v>
       </c>
       <c r="D20" t="n">
         <v>53</v>
@@ -1083,13 +1083,13 @@
         <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>46.4409256</v>
+        <v>39.9294891</v>
       </c>
       <c r="H20" t="n">
-        <v>23.36866734</v>
+        <v>27.59304765</v>
       </c>
       <c r="I20" t="n">
-        <v>25.92783239</v>
+        <v>26.26413269</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>703</v>
       </c>
       <c r="B21" t="n">
-        <v>652953.1763982661</v>
+        <v>748890.5088094025</v>
       </c>
       <c r="C21" t="n">
-        <v>5188287.798780024</v>
+        <v>5257301.970883464</v>
       </c>
       <c r="D21" t="n">
         <v>53</v>
@@ -1119,13 +1119,13 @@
         <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>44.6015587</v>
+        <v>36.5063629</v>
       </c>
       <c r="H21" t="n">
-        <v>26.86724868</v>
+        <v>26.35854214</v>
       </c>
       <c r="I21" t="n">
-        <v>23.40400467</v>
+        <v>29.34064559</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1135,13 +1135,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>718</v>
       </c>
       <c r="B22" t="n">
-        <v>748483.033182322</v>
+        <v>652953.1763982661</v>
       </c>
       <c r="C22" t="n">
-        <v>5261095.944008267</v>
+        <v>5188287.798780024</v>
       </c>
       <c r="D22" t="n">
         <v>53</v>
@@ -1155,29 +1155,29 @@
         <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>42.8190231</v>
+        <v>33.6332855</v>
       </c>
       <c r="H22" t="n">
-        <v>38.79813368</v>
+        <v>31.21927469</v>
       </c>
       <c r="I22" t="n">
-        <v>9.80950661</v>
+        <v>30.4772249</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>746</v>
       </c>
       <c r="B23" t="n">
-        <v>749998.3663977328</v>
+        <v>748483.033182322</v>
       </c>
       <c r="C23" t="n">
-        <v>5260678.086329491</v>
+        <v>5261095.944008267</v>
       </c>
       <c r="D23" t="n">
         <v>53</v>
@@ -1191,13 +1191,13 @@
         <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>46.458519</v>
+        <v>34.7629852</v>
       </c>
       <c r="H23" t="n">
-        <v>23.22977645</v>
+        <v>29.35844223</v>
       </c>
       <c r="I23" t="n">
-        <v>24.07468715</v>
+        <v>31.28330769</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1207,13 +1207,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>768</v>
       </c>
       <c r="B24" t="n">
-        <v>745399.5007412065</v>
+        <v>749998.3663977328</v>
       </c>
       <c r="C24" t="n">
-        <v>5265900.347843933</v>
+        <v>5260678.086329491</v>
       </c>
       <c r="D24" t="n">
         <v>53</v>
@@ -1227,13 +1227,13 @@
         <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>39.8247299</v>
+        <v>33.0780296</v>
       </c>
       <c r="H24" t="n">
-        <v>26.0959601</v>
+        <v>33.53098354</v>
       </c>
       <c r="I24" t="n">
-        <v>30.71698458</v>
+        <v>28.64876407</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1243,13 +1243,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>786</v>
       </c>
       <c r="B25" t="n">
-        <v>730125.8692213289</v>
+        <v>745399.5007412065</v>
       </c>
       <c r="C25" t="n">
-        <v>5299426.325927445</v>
+        <v>5265900.347843933</v>
       </c>
       <c r="D25" t="n">
         <v>53</v>
@@ -1263,13 +1263,13 @@
         <v>6</v>
       </c>
       <c r="G25" t="n">
-        <v>43.377491</v>
+        <v>33.1160316</v>
       </c>
       <c r="H25" t="n">
-        <v>22.68307653</v>
+        <v>33.67286252</v>
       </c>
       <c r="I25" t="n">
-        <v>29.64942722</v>
+        <v>28.69102366</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1279,13 +1279,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>829</v>
       </c>
       <c r="B26" t="n">
-        <v>730159.0745115923</v>
+        <v>730125.8692213289</v>
       </c>
       <c r="C26" t="n">
-        <v>5298658.671785032</v>
+        <v>5299426.325927445</v>
       </c>
       <c r="D26" t="n">
         <v>53</v>
@@ -1299,29 +1299,29 @@
         <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>45.117321</v>
+        <v>34.4575958</v>
       </c>
       <c r="H26" t="n">
-        <v>15.50614566</v>
+        <v>29.41349288</v>
       </c>
       <c r="I26" t="n">
-        <v>34.54141444</v>
+        <v>31.59498307</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>839</v>
       </c>
       <c r="B27" t="n">
-        <v>749966.8299398395</v>
+        <v>730159.0745115923</v>
       </c>
       <c r="C27" t="n">
-        <v>5261419.029960482</v>
+        <v>5298658.671785032</v>
       </c>
       <c r="D27" t="n">
         <v>53</v>
@@ -1335,13 +1335,13 @@
         <v>6</v>
       </c>
       <c r="G27" t="n">
-        <v>38.9603004</v>
+        <v>34.2629929</v>
       </c>
       <c r="H27" t="n">
-        <v>31.20575863</v>
+        <v>26.609797239</v>
       </c>
       <c r="I27" t="n">
-        <v>27.12922611</v>
+        <v>33.14187887</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1351,13 +1351,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>865</v>
       </c>
       <c r="B28" t="n">
-        <v>755462.3797492917</v>
+        <v>749966.8299398395</v>
       </c>
       <c r="C28" t="n">
-        <v>5262202.232223866</v>
+        <v>5261419.029960482</v>
       </c>
       <c r="D28" t="n">
         <v>53</v>
@@ -1371,13 +1371,13 @@
         <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>39.097744</v>
+        <v>32.4435768</v>
       </c>
       <c r="H28" t="n">
-        <v>25.80514282</v>
+        <v>35.1990058</v>
       </c>
       <c r="I28" t="n">
-        <v>30.62179932</v>
+        <v>27.91437415</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1387,13 +1387,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>873</v>
       </c>
       <c r="B29" t="n">
-        <v>728494.2215846076</v>
+        <v>755462.3797492917</v>
       </c>
       <c r="C29" t="n">
-        <v>5263896.922585673</v>
+        <v>5262202.232223866</v>
       </c>
       <c r="D29" t="n">
         <v>53</v>
@@ -1407,29 +1407,29 @@
         <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>37.1306648</v>
+        <v>29.697588</v>
       </c>
       <c r="H29" t="n">
-        <v>39.78264927</v>
+        <v>33.127510477</v>
       </c>
       <c r="I29" t="n">
-        <v>20.16112021</v>
+        <v>33.01289982999999</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>938</v>
       </c>
       <c r="B30" t="n">
-        <v>715281.5624686951</v>
+        <v>728494.2215846076</v>
       </c>
       <c r="C30" t="n">
-        <v>5235642.123177342</v>
+        <v>5263896.922585673</v>
       </c>
       <c r="D30" t="n">
         <v>53</v>
@@ -1443,29 +1443,29 @@
         <v>6</v>
       </c>
       <c r="G30" t="n">
-        <v>45.2790375</v>
+        <v>28.8155651</v>
       </c>
       <c r="H30" t="n">
-        <v>45.5183571</v>
+        <v>33.560268934</v>
       </c>
       <c r="I30" t="n">
-        <v>4.948090805000001</v>
+        <v>33.81524165</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>tonalite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>941</v>
       </c>
       <c r="B31" t="n">
-        <v>749982.6613867346</v>
+        <v>715281.5624686951</v>
       </c>
       <c r="C31" t="n">
-        <v>5261444.66269515</v>
+        <v>5235642.123177342</v>
       </c>
       <c r="D31" t="n">
         <v>53</v>
@@ -1479,29 +1479,29 @@
         <v>6</v>
       </c>
       <c r="G31" t="n">
-        <v>44.4954262</v>
+        <v>35.7982635</v>
       </c>
       <c r="H31" t="n">
-        <v>31.82946058</v>
+        <v>26.0316053</v>
       </c>
       <c r="I31" t="n">
-        <v>17.09137133</v>
+        <v>32.6093372</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>982</v>
       </c>
       <c r="B32" t="n">
-        <v>740518.9195144338</v>
+        <v>749982.6613867346</v>
       </c>
       <c r="C32" t="n">
-        <v>5261967.339511234</v>
+        <v>5261444.66269515</v>
       </c>
       <c r="D32" t="n">
         <v>53</v>
@@ -1515,13 +1515,13 @@
         <v>6</v>
       </c>
       <c r="G32" t="n">
-        <v>38.5817566</v>
+        <v>35.9372711</v>
       </c>
       <c r="H32" t="n">
-        <v>31.47970353</v>
+        <v>27.01620932</v>
       </c>
       <c r="I32" t="n">
-        <v>25.98319398</v>
+        <v>30.94119534</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1531,13 +1531,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>1019</v>
       </c>
       <c r="B33" t="n">
-        <v>655569.9248601586</v>
+        <v>740518.9195144338</v>
       </c>
       <c r="C33" t="n">
-        <v>5185258.224278382</v>
+        <v>5261967.339511234</v>
       </c>
       <c r="D33" t="n">
         <v>53</v>
@@ -1551,13 +1551,13 @@
         <v>6</v>
       </c>
       <c r="G33" t="n">
-        <v>41.7577629</v>
+        <v>32.8051682</v>
       </c>
       <c r="H33" t="n">
-        <v>20.23075033</v>
+        <v>32.5274983</v>
       </c>
       <c r="I33" t="n">
-        <v>34.81060414</v>
+        <v>29.86406266</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1567,13 +1567,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>1035</v>
       </c>
       <c r="B34" t="n">
-        <v>730116.7428732291</v>
+        <v>655569.9248601586</v>
       </c>
       <c r="C34" t="n">
-        <v>5299411.542690338</v>
+        <v>5185258.224278382</v>
       </c>
       <c r="D34" t="n">
         <v>53</v>
@@ -1587,13 +1587,13 @@
         <v>6</v>
       </c>
       <c r="G34" t="n">
-        <v>36.6023636</v>
+        <v>31.9339905</v>
       </c>
       <c r="H34" t="n">
-        <v>32.27169339</v>
+        <v>32.64877206</v>
       </c>
       <c r="I34" t="n">
-        <v>26.36792261</v>
+        <v>32.14535637</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>1061</v>
       </c>
       <c r="B35" t="n">
-        <v>726069.0837561354</v>
+        <v>730116.7428732291</v>
       </c>
       <c r="C35" t="n">
-        <v>5264723.560969237</v>
+        <v>5299411.542690338</v>
       </c>
       <c r="D35" t="n">
         <v>53</v>
@@ -1623,13 +1623,13 @@
         <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>46.1148491</v>
+        <v>36.3149109</v>
       </c>
       <c r="H35" t="n">
-        <v>21.97552639</v>
+        <v>26.90442633</v>
       </c>
       <c r="I35" t="n">
-        <v>24.87233088</v>
+        <v>31.18940698</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1639,13 +1639,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>1103</v>
       </c>
       <c r="B36" t="n">
-        <v>703842.0382251553</v>
+        <v>726069.0837561354</v>
       </c>
       <c r="C36" t="n">
-        <v>5212969.749559079</v>
+        <v>5264723.560969237</v>
       </c>
       <c r="D36" t="n">
         <v>53</v>
@@ -1659,13 +1659,13 @@
         <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>39.4992867</v>
+        <v>30.0098553</v>
       </c>
       <c r="H36" t="n">
-        <v>30.40691397</v>
+        <v>31.343571819</v>
       </c>
       <c r="I36" t="n">
-        <v>26.22938348</v>
+        <v>33.62907674</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1675,13 +1675,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>1116</v>
       </c>
       <c r="B37" t="n">
-        <v>747719.5984748439</v>
+        <v>703842.0382251553</v>
       </c>
       <c r="C37" t="n">
-        <v>5261147.132385032</v>
+        <v>5212969.749559079</v>
       </c>
       <c r="D37" t="n">
         <v>53</v>
@@ -1695,13 +1695,13 @@
         <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>37.132122</v>
+        <v>30.4010868</v>
       </c>
       <c r="H37" t="n">
-        <v>29.089366312</v>
+        <v>33.62977655</v>
       </c>
       <c r="I37" t="n">
-        <v>28.95470925</v>
+        <v>32.68147312</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1711,13 +1711,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>1228</v>
       </c>
       <c r="B38" t="n">
-        <v>745733.9447207274</v>
+        <v>747719.5984748439</v>
       </c>
       <c r="C38" t="n">
-        <v>5234744.640211666</v>
+        <v>5261147.132385032</v>
       </c>
       <c r="D38" t="n">
         <v>53</v>
@@ -1731,13 +1731,13 @@
         <v>6</v>
       </c>
       <c r="G38" t="n">
-        <v>39.7728271</v>
+        <v>27.9772148</v>
       </c>
       <c r="H38" t="n">
-        <v>25.15229568</v>
+        <v>35.38446433</v>
       </c>
       <c r="I38" t="n">
-        <v>31.97569791</v>
+        <v>32.38013192</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1747,13 +1747,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>1287</v>
       </c>
       <c r="B39" t="n">
-        <v>740629.8289974511</v>
+        <v>745733.9447207274</v>
       </c>
       <c r="C39" t="n">
-        <v>5261948.82007563</v>
+        <v>5234744.640211666</v>
       </c>
       <c r="D39" t="n">
         <v>53</v>
@@ -1767,13 +1767,13 @@
         <v>6</v>
       </c>
       <c r="G39" t="n">
-        <v>43.4918175</v>
+        <v>33.9601631</v>
       </c>
       <c r="H39" t="n">
-        <v>25.39802028</v>
+        <v>32.47361478000001</v>
       </c>
       <c r="I39" t="n">
-        <v>27.39366912</v>
+        <v>27.47977558</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1783,13 +1783,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>1327</v>
       </c>
       <c r="B40" t="n">
-        <v>655453.0039857288</v>
+        <v>740629.8289974511</v>
       </c>
       <c r="C40" t="n">
-        <v>5238392.250651822</v>
+        <v>5261948.82007563</v>
       </c>
       <c r="D40" t="n">
         <v>53</v>
@@ -1803,13 +1803,13 @@
         <v>6</v>
       </c>
       <c r="G40" t="n">
-        <v>47.1571236</v>
+        <v>29.9501534</v>
       </c>
       <c r="H40" t="n">
-        <v>21.39985021</v>
+        <v>31.56713694</v>
       </c>
       <c r="I40" t="n">
-        <v>24.13693538</v>
+        <v>32.7409502</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1819,13 +1819,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>1341</v>
       </c>
       <c r="B41" t="n">
-        <v>734745.0208094758</v>
+        <v>655453.0039857288</v>
       </c>
       <c r="C41" t="n">
-        <v>5301096.68617475</v>
+        <v>5238392.250651822</v>
       </c>
       <c r="D41" t="n">
         <v>53</v>
@@ -1839,13 +1839,13 @@
         <v>6</v>
       </c>
       <c r="G41" t="n">
-        <v>42.9145699</v>
+        <v>36.2665634</v>
       </c>
       <c r="H41" t="n">
-        <v>23.33717047</v>
+        <v>24.71093829</v>
       </c>
       <c r="I41" t="n">
-        <v>28.81775147</v>
+        <v>31.20567623</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>1362</v>
       </c>
       <c r="B42" t="n">
-        <v>693310.9031128032</v>
+        <v>734745.0208094758</v>
       </c>
       <c r="C42" t="n">
-        <v>5231631.597210899</v>
+        <v>5301096.68617475</v>
       </c>
       <c r="D42" t="n">
         <v>53</v>
@@ -1875,13 +1875,13 @@
         <v>6</v>
       </c>
       <c r="G42" t="n">
-        <v>37.9366722</v>
+        <v>32.4823647</v>
       </c>
       <c r="H42" t="n">
-        <v>29.749147841</v>
+        <v>31.38736143</v>
       </c>
       <c r="I42" t="n">
-        <v>27.4656193</v>
+        <v>29.31757409</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -1891,13 +1891,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>1363</v>
       </c>
       <c r="B43" t="n">
-        <v>646264.7836615916</v>
+        <v>693310.9031128032</v>
       </c>
       <c r="C43" t="n">
-        <v>5188737.929604101</v>
+        <v>5231631.597210899</v>
       </c>
       <c r="D43" t="n">
         <v>53</v>
@@ -1911,13 +1911,13 @@
         <v>6</v>
       </c>
       <c r="G43" t="n">
-        <v>47.8338318</v>
+        <v>29.7882195</v>
       </c>
       <c r="H43" t="n">
-        <v>25.8797337</v>
+        <v>34.06770214</v>
       </c>
       <c r="I43" t="n">
-        <v>17.70937676</v>
+        <v>28.4393913</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -1927,13 +1927,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>1386</v>
       </c>
       <c r="B44" t="n">
-        <v>739134.4327027325</v>
+        <v>646264.7836615916</v>
       </c>
       <c r="C44" t="n">
-        <v>5280467.533987459</v>
+        <v>5188737.929604101</v>
       </c>
       <c r="D44" t="n">
         <v>53</v>
@@ -1947,13 +1947,13 @@
         <v>6</v>
       </c>
       <c r="G44" t="n">
-        <v>34.5115089</v>
+        <v>30.3724346</v>
       </c>
       <c r="H44" t="n">
-        <v>34.062695473</v>
+        <v>33.90792582</v>
       </c>
       <c r="I44" t="n">
-        <v>28.92283862</v>
+        <v>31.38290479</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>1451</v>
       </c>
       <c r="B45" t="n">
-        <v>739126.8068524115</v>
+        <v>739134.4327027325</v>
       </c>
       <c r="C45" t="n">
-        <v>5280455.188128982</v>
+        <v>5280467.533987459</v>
       </c>
       <c r="D45" t="n">
         <v>53</v>
@@ -1983,13 +1983,13 @@
         <v>6</v>
       </c>
       <c r="G45" t="n">
-        <v>38.4915657</v>
+        <v>29.7303314</v>
       </c>
       <c r="H45" t="n">
-        <v>31.03510103</v>
+        <v>32.03257434</v>
       </c>
       <c r="I45" t="n">
-        <v>27.91122095</v>
+        <v>31.34714199</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -1999,13 +1999,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>1530</v>
       </c>
       <c r="B46" t="n">
-        <v>651796.2190877202</v>
+        <v>739126.8068524115</v>
       </c>
       <c r="C46" t="n">
-        <v>5188110.37349763</v>
+        <v>5280455.188128982</v>
       </c>
       <c r="D46" t="n">
         <v>53</v>
@@ -2019,13 +2019,13 @@
         <v>6</v>
       </c>
       <c r="G46" t="n">
-        <v>35.8556252</v>
+        <v>30.452137</v>
       </c>
       <c r="H46" t="n">
-        <v>24.23370937</v>
+        <v>33.88826024</v>
       </c>
       <c r="I46" t="n">
-        <v>37.38472467</v>
+        <v>29.23913628</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2035,13 +2035,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>1539</v>
       </c>
       <c r="B47" t="n">
-        <v>760786.8241140884</v>
+        <v>651796.2190877202</v>
       </c>
       <c r="C47" t="n">
-        <v>5250402.679106001</v>
+        <v>5188110.37349763</v>
       </c>
       <c r="D47" t="n">
         <v>53</v>
@@ -2055,29 +2055,29 @@
         <v>6</v>
       </c>
       <c r="G47" t="n">
-        <v>38.725853</v>
+        <v>32.9005699</v>
       </c>
       <c r="H47" t="n">
-        <v>44.66908208</v>
+        <v>32.20586014</v>
       </c>
       <c r="I47" t="n">
-        <v>11.95512057</v>
+        <v>29.56536695</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>744718.0106613884</v>
+        <v>760786.8241140884</v>
       </c>
       <c r="C48" t="n">
-        <v>5265654.924990229</v>
+        <v>5250402.679106001</v>
       </c>
       <c r="D48" t="n">
         <v>53</v>
@@ -2091,13 +2091,13 @@
         <v>6</v>
       </c>
       <c r="G48" t="n">
-        <v>41.1664391</v>
+        <v>31.7225494</v>
       </c>
       <c r="H48" t="n">
-        <v>25.4746733</v>
+        <v>37.56892251000001</v>
       </c>
       <c r="I48" t="n">
-        <v>29.71598869</v>
+        <v>24.70472415</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2107,13 +2107,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>1719</v>
       </c>
       <c r="B49" t="n">
-        <v>678434.6506461282</v>
+        <v>744718.0106613884</v>
       </c>
       <c r="C49" t="n">
-        <v>5201359.616250509</v>
+        <v>5265654.924990229</v>
       </c>
       <c r="D49" t="n">
         <v>53</v>
@@ -2127,29 +2127,29 @@
         <v>6</v>
       </c>
       <c r="G49" t="n">
-        <v>42.3775749</v>
+        <v>24.1621494</v>
       </c>
       <c r="H49" t="n">
-        <v>35.52111763</v>
+        <v>36.45996324</v>
       </c>
       <c r="I49" t="n">
-        <v>16.83076023</v>
+        <v>35.13944583</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>49</v>
+        <v>1720</v>
       </c>
       <c r="B50" t="n">
-        <v>747727.1183179857</v>
+        <v>678434.6506461282</v>
       </c>
       <c r="C50" t="n">
-        <v>5261159.296846699</v>
+        <v>5201359.616250509</v>
       </c>
       <c r="D50" t="n">
         <v>53</v>
@@ -2163,13 +2163,13 @@
         <v>6</v>
       </c>
       <c r="G50" t="n">
-        <v>39.4923134</v>
+        <v>31.0524559</v>
       </c>
       <c r="H50" t="n">
-        <v>25.55129574</v>
+        <v>28.22732038</v>
       </c>
       <c r="I50" t="n">
-        <v>32.06438774</v>
+        <v>33.20010646</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2179,13 +2179,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>1731</v>
       </c>
       <c r="B51" t="n">
-        <v>739129.7988881846</v>
+        <v>747727.1183179857</v>
       </c>
       <c r="C51" t="n">
-        <v>5280460.032072629</v>
+        <v>5261159.296846699</v>
       </c>
       <c r="D51" t="n">
         <v>53</v>
@@ -2199,13 +2199,13 @@
         <v>6</v>
       </c>
       <c r="G51" t="n">
-        <v>42.7307129</v>
+        <v>35.2677498</v>
       </c>
       <c r="H51" t="n">
-        <v>24.92846388</v>
+        <v>27.75760454</v>
       </c>
       <c r="I51" t="n">
-        <v>28.73240052</v>
+        <v>28.59745177</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>1802</v>
       </c>
       <c r="B52" t="n">
-        <v>731805.1099242757</v>
+        <v>739129.7988881846</v>
       </c>
       <c r="C52" t="n">
-        <v>5259766.938161719</v>
+        <v>5280460.032072629</v>
       </c>
       <c r="D52" t="n">
         <v>53</v>
@@ -2235,13 +2235,13 @@
         <v>6</v>
       </c>
       <c r="G52" t="n">
-        <v>40.3364754</v>
+        <v>26.0526543</v>
       </c>
       <c r="H52" t="n">
-        <v>21.453703388</v>
+        <v>35.53168712</v>
       </c>
       <c r="I52" t="n">
-        <v>32.87863257</v>
+        <v>32.12498812</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>1810</v>
       </c>
       <c r="B53" t="n">
-        <v>686214.4738702219</v>
+        <v>731805.1099242757</v>
       </c>
       <c r="C53" t="n">
-        <v>5229544.810926748</v>
+        <v>5259766.938161719</v>
       </c>
       <c r="D53" t="n">
         <v>53</v>
@@ -2271,29 +2271,29 @@
         <v>6</v>
       </c>
       <c r="G53" t="n">
-        <v>42.7401276</v>
+        <v>28.4887161</v>
       </c>
       <c r="H53" t="n">
-        <v>16.21656095</v>
+        <v>35.64806931</v>
       </c>
       <c r="I53" t="n">
-        <v>36.63852941</v>
+        <v>28.50729901</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>53</v>
+        <v>1821</v>
       </c>
       <c r="B54" t="n">
-        <v>747723.6289773184</v>
+        <v>686214.4738702219</v>
       </c>
       <c r="C54" t="n">
-        <v>5261153.652312526</v>
+        <v>5229544.810926748</v>
       </c>
       <c r="D54" t="n">
         <v>53</v>
@@ -2307,13 +2307,13 @@
         <v>6</v>
       </c>
       <c r="G54" t="n">
-        <v>39.7485886</v>
+        <v>36.4819489</v>
       </c>
       <c r="H54" t="n">
-        <v>26.17129324</v>
+        <v>28.21987517</v>
       </c>
       <c r="I54" t="n">
-        <v>30.28086262</v>
+        <v>24.0371477</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2323,13 +2323,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>1826</v>
       </c>
       <c r="B55" t="n">
-        <v>704096.0281125102</v>
+        <v>747723.6289773184</v>
       </c>
       <c r="C55" t="n">
-        <v>5217925.627407251</v>
+        <v>5261153.652312526</v>
       </c>
       <c r="D55" t="n">
         <v>53</v>
@@ -2343,13 +2343,13 @@
         <v>6</v>
       </c>
       <c r="G55" t="n">
-        <v>37.1629524</v>
+        <v>32.1771317</v>
       </c>
       <c r="H55" t="n">
-        <v>27.44250759</v>
+        <v>33.90321046</v>
       </c>
       <c r="I55" t="n">
-        <v>32.85695405</v>
+        <v>27.7168781</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2359,13 +2359,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>55</v>
+        <v>1834</v>
       </c>
       <c r="B56" t="n">
-        <v>658025.2440132131</v>
+        <v>704096.0281125102</v>
       </c>
       <c r="C56" t="n">
-        <v>5202954.998613191</v>
+        <v>5217925.627407251</v>
       </c>
       <c r="D56" t="n">
         <v>53</v>
@@ -2379,13 +2379,13 @@
         <v>6</v>
       </c>
       <c r="G56" t="n">
-        <v>33.6139717</v>
+        <v>26.162674</v>
       </c>
       <c r="H56" t="n">
-        <v>31.08270834</v>
+        <v>32.14149401</v>
       </c>
       <c r="I56" t="n">
-        <v>29.36569786</v>
+        <v>35.192663</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2395,13 +2395,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>56</v>
+        <v>1935</v>
       </c>
       <c r="B57" t="n">
-        <v>760340.9737675169</v>
+        <v>658025.2440132131</v>
       </c>
       <c r="C57" t="n">
-        <v>5249084.18517179</v>
+        <v>5202954.998613191</v>
       </c>
       <c r="D57" t="n">
         <v>53</v>
@@ -2415,13 +2415,13 @@
         <v>6</v>
       </c>
       <c r="G57" t="n">
-        <v>34.0873146</v>
+        <v>27.0741558</v>
       </c>
       <c r="H57" t="n">
-        <v>37.77868317999999</v>
+        <v>34.44222660000001</v>
       </c>
       <c r="I57" t="n">
-        <v>25.76614152</v>
+        <v>31.07743719</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2431,13 +2431,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>57</v>
+        <v>1952</v>
       </c>
       <c r="B58" t="n">
-        <v>730272.4754760144</v>
+        <v>760340.9737675169</v>
       </c>
       <c r="C58" t="n">
-        <v>5253760.63391308</v>
+        <v>5249084.18517179</v>
       </c>
       <c r="D58" t="n">
         <v>53</v>
@@ -2451,13 +2451,13 @@
         <v>6</v>
       </c>
       <c r="G58" t="n">
-        <v>37.3806419</v>
+        <v>28.5340519</v>
       </c>
       <c r="H58" t="n">
-        <v>36.34214195000001</v>
+        <v>40.74106523</v>
       </c>
       <c r="I58" t="n">
-        <v>22.25583381</v>
+        <v>23.37881162</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2467,13 +2467,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>1992</v>
       </c>
       <c r="B59" t="n">
-        <v>679086.2882404742</v>
+        <v>730272.4754760144</v>
       </c>
       <c r="C59" t="n">
-        <v>5200501.10950252</v>
+        <v>5253760.63391308</v>
       </c>
       <c r="D59" t="n">
         <v>53</v>
@@ -2487,13 +2487,13 @@
         <v>6</v>
       </c>
       <c r="G59" t="n">
-        <v>37.9814415</v>
+        <v>29.9819508</v>
       </c>
       <c r="H59" t="n">
-        <v>31.9368471</v>
+        <v>33.35546517</v>
       </c>
       <c r="I59" t="n">
-        <v>27.02231178</v>
+        <v>29.1696632</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2503,13 +2503,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>2016</v>
       </c>
       <c r="B60" t="n">
-        <v>647281.6038738638</v>
+        <v>679086.2882404742</v>
       </c>
       <c r="C60" t="n">
-        <v>5186136.323868727</v>
+        <v>5200501.10950252</v>
       </c>
       <c r="D60" t="n">
         <v>53</v>
@@ -2523,13 +2523,13 @@
         <v>6</v>
       </c>
       <c r="G60" t="n">
-        <v>37.186821</v>
+        <v>29.1011066</v>
       </c>
       <c r="H60" t="n">
-        <v>25.99966248</v>
+        <v>32.1168968</v>
       </c>
       <c r="I60" t="n">
-        <v>34.3261416</v>
+        <v>31.42515259</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2539,13 +2539,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>60</v>
+        <v>2037</v>
       </c>
       <c r="B61" t="n">
-        <v>734323.7231102282</v>
+        <v>647281.6038738638</v>
       </c>
       <c r="C61" t="n">
-        <v>5278872.346681401</v>
+        <v>5186136.323868727</v>
       </c>
       <c r="D61" t="n">
         <v>53</v>
@@ -2559,13 +2559,13 @@
         <v>6</v>
       </c>
       <c r="G61" t="n">
-        <v>47.079071</v>
+        <v>29.3861351</v>
       </c>
       <c r="H61" t="n">
-        <v>18.90180695</v>
+        <v>32.69166583</v>
       </c>
       <c r="I61" t="n">
-        <v>27.11418726</v>
+        <v>32.42150284</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>61</v>
+        <v>2057</v>
       </c>
       <c r="B62" t="n">
-        <v>655772.9181568243</v>
+        <v>734323.7231102282</v>
       </c>
       <c r="C62" t="n">
-        <v>5185570.949279927</v>
+        <v>5278872.346681401</v>
       </c>
       <c r="D62" t="n">
         <v>53</v>
@@ -2595,13 +2595,13 @@
         <v>6</v>
       </c>
       <c r="G62" t="n">
-        <v>39.0298309</v>
+        <v>28.2372494</v>
       </c>
       <c r="H62" t="n">
-        <v>25.588862331</v>
+        <v>36.47769301</v>
       </c>
       <c r="I62" t="n">
-        <v>29.82482334</v>
+        <v>30.67563592</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2611,13 +2611,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>62</v>
+        <v>2081</v>
       </c>
       <c r="B63" t="n">
-        <v>655877.2773916317</v>
+        <v>655772.9181568243</v>
       </c>
       <c r="C63" t="n">
-        <v>5185892.253243443</v>
+        <v>5185570.949279927</v>
       </c>
       <c r="D63" t="n">
         <v>53</v>
@@ -2631,13 +2631,13 @@
         <v>6</v>
       </c>
       <c r="G63" t="n">
-        <v>36.9002457</v>
+        <v>31.5417976</v>
       </c>
       <c r="H63" t="n">
-        <v>31.1446739</v>
+        <v>35.34319934</v>
       </c>
       <c r="I63" t="n">
-        <v>28.88671802</v>
+        <v>26.9649147</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -2647,13 +2647,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>63</v>
+        <v>2085</v>
       </c>
       <c r="B64" t="n">
-        <v>733061.3501433604</v>
+        <v>655877.2773916317</v>
       </c>
       <c r="C64" t="n">
-        <v>5227811.769715165</v>
+        <v>5185892.253243443</v>
       </c>
       <c r="D64" t="n">
         <v>53</v>
@@ -2667,13 +2667,13 @@
         <v>6</v>
       </c>
       <c r="G64" t="n">
-        <v>37.065773</v>
+        <v>29.9572334</v>
       </c>
       <c r="H64" t="n">
-        <v>29.76778919</v>
+        <v>33.53331671</v>
       </c>
       <c r="I64" t="n">
-        <v>29.72798571</v>
+        <v>28.18795721</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -2683,13 +2683,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>64</v>
+        <v>2095</v>
       </c>
       <c r="B65" t="n">
-        <v>757272.8024357209</v>
+        <v>733061.3501433604</v>
       </c>
       <c r="C65" t="n">
-        <v>5199601.87979536</v>
+        <v>5227811.769715165</v>
       </c>
       <c r="D65" t="n">
         <v>53</v>
@@ -2703,13 +2703,13 @@
         <v>6</v>
       </c>
       <c r="G65" t="n">
-        <v>39.5297089</v>
+        <v>28.9760628</v>
       </c>
       <c r="H65" t="n">
-        <v>27.31847355</v>
+        <v>37.71875342</v>
       </c>
       <c r="I65" t="n">
-        <v>30.11992436</v>
+        <v>26.99574892</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -2719,13 +2719,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>65</v>
+        <v>2110</v>
       </c>
       <c r="B66" t="n">
-        <v>731002.7430117114</v>
+        <v>757272.8024357209</v>
       </c>
       <c r="C66" t="n">
-        <v>5235247.854280446</v>
+        <v>5199601.87979536</v>
       </c>
       <c r="D66" t="n">
         <v>53</v>
@@ -2739,29 +2739,29 @@
         <v>6</v>
       </c>
       <c r="G66" t="n">
-        <v>36.4473114</v>
+        <v>30.5112152</v>
       </c>
       <c r="H66" t="n">
-        <v>32.1858538277</v>
+        <v>45.96958147</v>
       </c>
       <c r="I66" t="n">
-        <v>27.87867166</v>
+        <v>18.09798263</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>66</v>
+        <v>2114</v>
       </c>
       <c r="B67" t="n">
-        <v>656329.1322420165</v>
+        <v>731002.7430117114</v>
       </c>
       <c r="C67" t="n">
-        <v>5189157.241776987</v>
+        <v>5235247.854280446</v>
       </c>
       <c r="D67" t="n">
         <v>53</v>
@@ -2775,13 +2775,13 @@
         <v>6</v>
       </c>
       <c r="G67" t="n">
-        <v>40.7608604</v>
+        <v>32.5719986</v>
       </c>
       <c r="H67" t="n">
-        <v>25.23403329</v>
+        <v>31.30455918</v>
       </c>
       <c r="I67" t="n">
-        <v>28.12018051</v>
+        <v>27.6806685</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -2791,13 +2791,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>67</v>
+        <v>2142</v>
       </c>
       <c r="B68" t="n">
-        <v>654879.3709326552</v>
+        <v>656329.1322420165</v>
       </c>
       <c r="C68" t="n">
-        <v>5199826.82686226</v>
+        <v>5189157.241776987</v>
       </c>
       <c r="D68" t="n">
         <v>53</v>
@@ -2811,29 +2811,29 @@
         <v>6</v>
       </c>
       <c r="G68" t="n">
-        <v>34.7895927</v>
+        <v>27.62817</v>
       </c>
       <c r="H68" t="n">
-        <v>46.208444138</v>
+        <v>38.31579458</v>
       </c>
       <c r="I68" t="n">
-        <v>15.75405028</v>
+        <v>27.65183482</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>68</v>
+        <v>2202</v>
       </c>
       <c r="B69" t="n">
-        <v>735068.0133275386</v>
+        <v>654879.3709326552</v>
       </c>
       <c r="C69" t="n">
-        <v>5296981.593437229</v>
+        <v>5199826.82686226</v>
       </c>
       <c r="D69" t="n">
         <v>53</v>
@@ -2847,13 +2847,13 @@
         <v>6</v>
       </c>
       <c r="G69" t="n">
-        <v>34.8473358</v>
+        <v>24.6937523</v>
       </c>
       <c r="H69" t="n">
-        <v>36.25694352</v>
+        <v>34.24223936999999</v>
       </c>
       <c r="I69" t="n">
-        <v>26.96465793</v>
+        <v>33.50956304</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -2863,13 +2863,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>69</v>
+        <v>2211</v>
       </c>
       <c r="B70" t="n">
-        <v>679358.7397705152</v>
+        <v>735068.0133275386</v>
       </c>
       <c r="C70" t="n">
-        <v>5198599.229365393</v>
+        <v>5296981.593437229</v>
       </c>
       <c r="D70" t="n">
         <v>53</v>
@@ -2883,13 +2883,13 @@
         <v>6</v>
       </c>
       <c r="G70" t="n">
-        <v>36.6812592</v>
+        <v>27.4677143</v>
       </c>
       <c r="H70" t="n">
-        <v>31.277931705</v>
+        <v>33.01371325</v>
       </c>
       <c r="I70" t="n">
-        <v>28.61779939</v>
+        <v>33.10138852</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -2899,13 +2899,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>70</v>
+        <v>2245</v>
       </c>
       <c r="B71" t="n">
-        <v>678903.4121190478</v>
+        <v>679358.7397705152</v>
       </c>
       <c r="C71" t="n">
-        <v>5199893.092934732</v>
+        <v>5198599.229365393</v>
       </c>
       <c r="D71" t="n">
         <v>53</v>
@@ -2919,13 +2919,13 @@
         <v>6</v>
       </c>
       <c r="G71" t="n">
-        <v>45.2211952</v>
+        <v>26.480423</v>
       </c>
       <c r="H71" t="n">
-        <v>29.59661416</v>
+        <v>33.10190525</v>
       </c>
       <c r="I71" t="n">
-        <v>18.63086341</v>
+        <v>32.58325159</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -2935,13 +2935,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>71</v>
+        <v>2256</v>
       </c>
       <c r="B72" t="n">
-        <v>654190.3701154649</v>
+        <v>678903.4121190478</v>
       </c>
       <c r="C72" t="n">
-        <v>5238355.647070837</v>
+        <v>5199893.092934732</v>
       </c>
       <c r="D72" t="n">
         <v>53</v>
@@ -2955,13 +2955,13 @@
         <v>6</v>
       </c>
       <c r="G72" t="n">
-        <v>42.1821404</v>
+        <v>28.1750431</v>
       </c>
       <c r="H72" t="n">
-        <v>25.6385732</v>
+        <v>33.57496909</v>
       </c>
       <c r="I72" t="n">
-        <v>26.85979942</v>
+        <v>30.41364306</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -2971,13 +2971,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>72</v>
+        <v>2362</v>
       </c>
       <c r="B73" t="n">
-        <v>660276.2679916106</v>
+        <v>654190.3701154649</v>
       </c>
       <c r="C73" t="n">
-        <v>5190172.863605727</v>
+        <v>5238355.647070837</v>
       </c>
       <c r="D73" t="n">
         <v>53</v>
@@ -2991,13 +2991,13 @@
         <v>6</v>
       </c>
       <c r="G73" t="n">
-        <v>40.1143761</v>
+        <v>33.2054024</v>
       </c>
       <c r="H73" t="n">
-        <v>28.7864884</v>
+        <v>29.06580335</v>
       </c>
       <c r="I73" t="n">
-        <v>26.70273073</v>
+        <v>28.67395611</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3007,13 +3007,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>73</v>
+        <v>2374</v>
       </c>
       <c r="B74" t="n">
-        <v>718641.4753570423</v>
+        <v>660276.2679916106</v>
       </c>
       <c r="C74" t="n">
-        <v>5235760.078346877</v>
+        <v>5190172.863605727</v>
       </c>
       <c r="D74" t="n">
         <v>53</v>
@@ -3027,13 +3027,13 @@
         <v>6</v>
       </c>
       <c r="G74" t="n">
-        <v>34.6524963</v>
+        <v>25.817543</v>
       </c>
       <c r="H74" t="n">
-        <v>25.55145261</v>
+        <v>38.17942793</v>
       </c>
       <c r="I74" t="n">
-        <v>33.02997589</v>
+        <v>28.36970442</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3043,13 +3043,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>74</v>
+        <v>2398</v>
       </c>
       <c r="B75" t="n">
-        <v>730267.1440138323</v>
+        <v>718641.4753570423</v>
       </c>
       <c r="C75" t="n">
-        <v>5253752.078462773</v>
+        <v>5235760.078346877</v>
       </c>
       <c r="D75" t="n">
         <v>53</v>
@@ -3063,13 +3063,13 @@
         <v>6</v>
       </c>
       <c r="G75" t="n">
-        <v>43.3135262</v>
+        <v>24.7761192</v>
       </c>
       <c r="H75" t="n">
-        <v>24.69380092</v>
+        <v>35.27090485</v>
       </c>
       <c r="I75" t="n">
-        <v>26.58380318</v>
+        <v>28.61286755</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3079,13 +3079,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>75</v>
+        <v>2421</v>
       </c>
       <c r="B76" t="n">
-        <v>674837.5502216157</v>
+        <v>730267.1440138323</v>
       </c>
       <c r="C76" t="n">
-        <v>5237216.837207654</v>
+        <v>5253752.078462773</v>
       </c>
       <c r="D76" t="n">
         <v>53</v>
@@ -3099,13 +3099,13 @@
         <v>6</v>
       </c>
       <c r="G76" t="n">
-        <v>42.6974411</v>
+        <v>22.3373508</v>
       </c>
       <c r="H76" t="n">
-        <v>24.86806808</v>
+        <v>34.567538165</v>
       </c>
       <c r="I76" t="n">
-        <v>25.54605232</v>
+        <v>31.72556536</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3115,13 +3115,13 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>76</v>
+        <v>2435</v>
       </c>
       <c r="B77" t="n">
-        <v>658087.1898152721</v>
+        <v>674837.5502216157</v>
       </c>
       <c r="C77" t="n">
-        <v>5186408.730962987</v>
+        <v>5237216.837207654</v>
       </c>
       <c r="D77" t="n">
         <v>53</v>
@@ -3135,13 +3135,13 @@
         <v>6</v>
       </c>
       <c r="G77" t="n">
-        <v>33.990715</v>
+        <v>30.3326988</v>
       </c>
       <c r="H77" t="n">
-        <v>30.04202502</v>
+        <v>31.76869528</v>
       </c>
       <c r="I77" t="n">
-        <v>30.18158498</v>
+        <v>28.41919476</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3151,13 +3151,13 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>77</v>
+        <v>2454</v>
       </c>
       <c r="B78" t="n">
-        <v>734126.3011884835</v>
+        <v>658087.1898152721</v>
       </c>
       <c r="C78" t="n">
-        <v>5251872.648001843</v>
+        <v>5186408.730962987</v>
       </c>
       <c r="D78" t="n">
         <v>53</v>
@@ -3171,13 +3171,13 @@
         <v>6</v>
       </c>
       <c r="G78" t="n">
-        <v>36.7973251</v>
+        <v>30.8401203</v>
       </c>
       <c r="H78" t="n">
-        <v>33.22981787</v>
+        <v>32.50208171</v>
       </c>
       <c r="I78" t="n">
-        <v>27.25824774</v>
+        <v>27.33244535</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3187,13 +3187,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>78</v>
+        <v>2456</v>
       </c>
       <c r="B79" t="n">
-        <v>678917.3654493614</v>
+        <v>734126.3011884835</v>
       </c>
       <c r="C79" t="n">
-        <v>5199430.21222393</v>
+        <v>5251872.648001843</v>
       </c>
       <c r="D79" t="n">
         <v>53</v>
@@ -3207,29 +3207,29 @@
         <v>6</v>
       </c>
       <c r="G79" t="n">
-        <v>38.2924156</v>
+        <v>26.8844624</v>
       </c>
       <c r="H79" t="n">
-        <v>30.35353518</v>
+        <v>22.71221107</v>
       </c>
       <c r="I79" t="n">
-        <v>27.8132687</v>
+        <v>44.28699569</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>syeno granite</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>79</v>
+        <v>2544</v>
       </c>
       <c r="B80" t="n">
-        <v>708998.2671200311</v>
+        <v>678917.3654493614</v>
       </c>
       <c r="C80" t="n">
-        <v>5213942.382300007</v>
+        <v>5199430.21222393</v>
       </c>
       <c r="D80" t="n">
         <v>53</v>
@@ -3243,13 +3243,13 @@
         <v>6</v>
       </c>
       <c r="G80" t="n">
-        <v>37.1208191</v>
+        <v>30.0514469</v>
       </c>
       <c r="H80" t="n">
-        <v>29.88819233</v>
+        <v>31.26106494</v>
       </c>
       <c r="I80" t="n">
-        <v>29.876075</v>
+        <v>28.86962944</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3259,13 +3259,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>80</v>
+        <v>2608</v>
       </c>
       <c r="B81" t="n">
-        <v>736699.6670457377</v>
+        <v>708998.2671200311</v>
       </c>
       <c r="C81" t="n">
-        <v>5296107.584516295</v>
+        <v>5213942.382300007</v>
       </c>
       <c r="D81" t="n">
         <v>53</v>
@@ -3279,13 +3279,13 @@
         <v>6</v>
       </c>
       <c r="G81" t="n">
-        <v>38.0396729</v>
+        <v>21.3348885</v>
       </c>
       <c r="H81" t="n">
-        <v>30.516649012</v>
+        <v>39.02667651</v>
       </c>
       <c r="I81" t="n">
-        <v>27.83032071</v>
+        <v>32.85348629</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3295,13 +3295,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>81</v>
+        <v>2678</v>
       </c>
       <c r="B82" t="n">
-        <v>685555.449292699</v>
+        <v>736699.6670457377</v>
       </c>
       <c r="C82" t="n">
-        <v>5230452.96806073</v>
+        <v>5296107.584516295</v>
       </c>
       <c r="D82" t="n">
         <v>53</v>
@@ -3315,13 +3315,13 @@
         <v>6</v>
       </c>
       <c r="G82" t="n">
-        <v>35.3760376</v>
+        <v>22.5382061</v>
       </c>
       <c r="H82" t="n">
-        <v>29.53542141</v>
+        <v>34.81150143</v>
       </c>
       <c r="I82" t="n">
-        <v>30.56647109</v>
+        <v>36.35821014</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3331,13 +3331,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>82</v>
+        <v>2691</v>
       </c>
       <c r="B83" t="n">
-        <v>716159.2962768325</v>
+        <v>685555.449292699</v>
       </c>
       <c r="C83" t="n">
-        <v>5234588.224514377</v>
+        <v>5230452.96806073</v>
       </c>
       <c r="D83" t="n">
         <v>53</v>
@@ -3351,29 +3351,29 @@
         <v>6</v>
       </c>
       <c r="G83" t="n">
-        <v>44.4121284</v>
+        <v>28.6986675</v>
       </c>
       <c r="H83" t="n">
-        <v>14.6257357</v>
+        <v>31.58911877</v>
       </c>
       <c r="I83" t="n">
-        <v>36.47769459000001</v>
+        <v>30.6225445</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>83</v>
+        <v>2700</v>
       </c>
       <c r="B84" t="n">
-        <v>741173.789636604</v>
+        <v>716159.2962768325</v>
       </c>
       <c r="C84" t="n">
-        <v>5264209.436141591</v>
+        <v>5234588.224514377</v>
       </c>
       <c r="D84" t="n">
         <v>53</v>
@@ -3387,29 +3387,29 @@
         <v>6</v>
       </c>
       <c r="G84" t="n">
-        <v>38.3348007</v>
+        <v>23.3775673</v>
       </c>
       <c r="H84" t="n">
-        <v>39.20067691</v>
+        <v>35.32747438</v>
       </c>
       <c r="I84" t="n">
-        <v>17.77492519</v>
+        <v>35.0202267</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>84</v>
+        <v>2773</v>
       </c>
       <c r="B85" t="n">
-        <v>759971.8768900376</v>
+        <v>741173.789636604</v>
       </c>
       <c r="C85" t="n">
-        <v>5251661.566100393</v>
+        <v>5264209.436141591</v>
       </c>
       <c r="D85" t="n">
         <v>53</v>
@@ -3423,29 +3423,29 @@
         <v>6</v>
       </c>
       <c r="G85" t="n">
-        <v>40.1349258</v>
+        <v>24.0252361</v>
       </c>
       <c r="H85" t="n">
-        <v>18.68900803</v>
+        <v>35.94520762000001</v>
       </c>
       <c r="I85" t="n">
-        <v>36.43763237</v>
+        <v>32.84048748</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>85</v>
+        <v>2840</v>
       </c>
       <c r="B86" t="n">
-        <v>730264.343647072</v>
+        <v>759971.8768900376</v>
       </c>
       <c r="C86" t="n">
-        <v>5253747.584699235</v>
+        <v>5251661.566100393</v>
       </c>
       <c r="D86" t="n">
         <v>53</v>
@@ -3459,13 +3459,13 @@
         <v>6</v>
       </c>
       <c r="G86" t="n">
-        <v>36.9279709</v>
+        <v>19.4737034</v>
       </c>
       <c r="H86" t="n">
-        <v>30.02415919</v>
+        <v>43.64121853</v>
       </c>
       <c r="I86" t="n">
-        <v>29.81762489</v>
+        <v>28.03805045</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -3475,13 +3475,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>86</v>
+        <v>2872</v>
       </c>
       <c r="B87" t="n">
-        <v>751300.6606415969</v>
+        <v>730264.343647072</v>
       </c>
       <c r="C87" t="n">
-        <v>5303225.661089826</v>
+        <v>5253747.584699235</v>
       </c>
       <c r="D87" t="n">
         <v>53</v>
@@ -3495,13 +3495,13 @@
         <v>6</v>
       </c>
       <c r="G87" t="n">
-        <v>37.6014175</v>
+        <v>26.0324593</v>
       </c>
       <c r="H87" t="n">
-        <v>27.6301109</v>
+        <v>37.53997022</v>
       </c>
       <c r="I87" t="n">
-        <v>31.29138164</v>
+        <v>28.04927938</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -3511,13 +3511,13 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>87</v>
+        <v>2932</v>
       </c>
       <c r="B88" t="n">
-        <v>711732.0756409925</v>
+        <v>751300.6606415969</v>
       </c>
       <c r="C88" t="n">
-        <v>5237606.782520588</v>
+        <v>5303225.661089826</v>
       </c>
       <c r="D88" t="n">
         <v>53</v>
@@ -3531,13 +3531,13 @@
         <v>6</v>
       </c>
       <c r="G88" t="n">
-        <v>36.767231</v>
+        <v>26.2959461</v>
       </c>
       <c r="H88" t="n">
-        <v>29.0576112</v>
+        <v>38.91730744</v>
       </c>
       <c r="I88" t="n">
-        <v>29.94542117</v>
+        <v>26.74233096</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -3547,13 +3547,13 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>88</v>
+        <v>2970</v>
       </c>
       <c r="B89" t="n">
-        <v>661360.1100947452</v>
+        <v>711732.0756409925</v>
       </c>
       <c r="C89" t="n">
-        <v>5237785.159378615</v>
+        <v>5237606.782520588</v>
       </c>
       <c r="D89" t="n">
         <v>53</v>
@@ -3567,13 +3567,13 @@
         <v>6</v>
       </c>
       <c r="G89" t="n">
-        <v>39.4871254</v>
+        <v>20.8658409</v>
       </c>
       <c r="H89" t="n">
-        <v>30.89446949</v>
+        <v>33.69071451</v>
       </c>
       <c r="I89" t="n">
-        <v>25.43460846</v>
+        <v>37.54246411</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -3583,13 +3583,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>89</v>
+        <v>3067</v>
       </c>
       <c r="B90" t="n">
-        <v>711737.1378813222</v>
+        <v>661360.1100947452</v>
       </c>
       <c r="C90" t="n">
-        <v>5237516.942130112</v>
+        <v>5237785.159378615</v>
       </c>
       <c r="D90" t="n">
         <v>53</v>
@@ -3603,13 +3603,13 @@
         <v>6</v>
       </c>
       <c r="G90" t="n">
-        <v>42.9506798</v>
+        <v>21.9738903</v>
       </c>
       <c r="H90" t="n">
-        <v>24.69643163</v>
+        <v>43.22422157</v>
       </c>
       <c r="I90" t="n">
-        <v>26.11972391</v>
+        <v>28.05019533</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -3619,13 +3619,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>90</v>
+        <v>3138</v>
       </c>
       <c r="B91" t="n">
-        <v>693162.5755322255</v>
+        <v>711737.1378813222</v>
       </c>
       <c r="C91" t="n">
-        <v>5207224.886883738</v>
+        <v>5237516.942130112</v>
       </c>
       <c r="D91" t="n">
         <v>53</v>
@@ -3639,29 +3639,29 @@
         <v>6</v>
       </c>
       <c r="G91" t="n">
-        <v>34.0070419</v>
+        <v>18.2595348</v>
       </c>
       <c r="H91" t="n">
-        <v>43.02372431000001</v>
+        <v>37.38818191999999</v>
       </c>
       <c r="I91" t="n">
-        <v>19.06161306</v>
+        <v>38.20409659</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>91</v>
+        <v>3145</v>
       </c>
       <c r="B92" t="n">
-        <v>686323.8863000084</v>
+        <v>693162.5755322255</v>
       </c>
       <c r="C92" t="n">
-        <v>5229554.739401216</v>
+        <v>5207224.886883738</v>
       </c>
       <c r="D92" t="n">
         <v>53</v>
@@ -3675,13 +3675,13 @@
         <v>6</v>
       </c>
       <c r="G92" t="n">
-        <v>43.0365143</v>
+        <v>21.4025764</v>
       </c>
       <c r="H92" t="n">
-        <v>20.446504774</v>
+        <v>41.74996245</v>
       </c>
       <c r="I92" t="n">
-        <v>30.95087417</v>
+        <v>28.61284105</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -3691,13 +3691,13 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>92</v>
+        <v>3280</v>
       </c>
       <c r="B93" t="n">
-        <v>760784.6106063285</v>
+        <v>686323.8863000084</v>
       </c>
       <c r="C93" t="n">
-        <v>5250399.089030217</v>
+        <v>5229554.739401216</v>
       </c>
       <c r="D93" t="n">
         <v>53</v>
@@ -3711,29 +3711,29 @@
         <v>6</v>
       </c>
       <c r="G93" t="n">
-        <v>40.6544418</v>
+        <v>23.1669731</v>
       </c>
       <c r="H93" t="n">
-        <v>17.140521835</v>
+        <v>38.22445599</v>
       </c>
       <c r="I93" t="n">
-        <v>37.93265607</v>
+        <v>26.89534072</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>93</v>
+        <v>3295</v>
       </c>
       <c r="B94" t="n">
-        <v>677385.4064137106</v>
+        <v>760784.6106063285</v>
       </c>
       <c r="C94" t="n">
-        <v>5229285.621200357</v>
+        <v>5250399.089030217</v>
       </c>
       <c r="D94" t="n">
         <v>53</v>
@@ -3747,29 +3747,29 @@
         <v>6</v>
       </c>
       <c r="G94" t="n">
-        <v>39.8007355</v>
+        <v>23.8394413</v>
       </c>
       <c r="H94" t="n">
-        <v>24.39601726</v>
+        <v>45.6569418</v>
       </c>
       <c r="I94" t="n">
-        <v>32.81093104</v>
+        <v>19.468844</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>94</v>
+        <v>3307</v>
       </c>
       <c r="B95" t="n">
-        <v>662507.3853537643</v>
+        <v>677385.4064137106</v>
       </c>
       <c r="C95" t="n">
-        <v>5199186.130358757</v>
+        <v>5229285.621200357</v>
       </c>
       <c r="D95" t="n">
         <v>53</v>
@@ -3783,13 +3783,13 @@
         <v>6</v>
       </c>
       <c r="G95" t="n">
-        <v>39.0439873</v>
+        <v>21.6468105</v>
       </c>
       <c r="H95" t="n">
-        <v>21.93871856</v>
+        <v>39.85382872</v>
       </c>
       <c r="I95" t="n">
-        <v>35.01071297</v>
+        <v>26.58397258</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -3799,13 +3799,13 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>95</v>
+        <v>3318</v>
       </c>
       <c r="B96" t="n">
-        <v>655016.4313514025</v>
+        <v>662507.3853537643</v>
       </c>
       <c r="C96" t="n">
-        <v>5238676.91366621</v>
+        <v>5199186.130358757</v>
       </c>
       <c r="D96" t="n">
         <v>53</v>
@@ -3819,13 +3819,13 @@
         <v>6</v>
       </c>
       <c r="G96" t="n">
-        <v>39.037262</v>
+        <v>19.4401855</v>
       </c>
       <c r="H96" t="n">
-        <v>27.20642169</v>
+        <v>43.57683545</v>
       </c>
       <c r="I96" t="n">
-        <v>30.19144073</v>
+        <v>27.20408935</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -3835,13 +3835,13 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>96</v>
+        <v>3427</v>
       </c>
       <c r="B97" t="n">
-        <v>758339.4440725987</v>
+        <v>655016.4313514025</v>
       </c>
       <c r="C97" t="n">
-        <v>5251594.64594791</v>
+        <v>5238676.91366621</v>
       </c>
       <c r="D97" t="n">
         <v>53</v>
@@ -3855,13 +3855,13 @@
         <v>6</v>
       </c>
       <c r="G97" t="n">
-        <v>38.9530067</v>
+        <v>22.8325539</v>
       </c>
       <c r="H97" t="n">
-        <v>29.14694322</v>
+        <v>38.60083446</v>
       </c>
       <c r="I97" t="n">
-        <v>28.44131702</v>
+        <v>28.34177054</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -3871,13 +3871,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>97</v>
+        <v>3452</v>
       </c>
       <c r="B98" t="n">
-        <v>655303.9825604444</v>
+        <v>758339.4440725987</v>
       </c>
       <c r="C98" t="n">
-        <v>5195441.967192167</v>
+        <v>5251594.64594791</v>
       </c>
       <c r="D98" t="n">
         <v>53</v>
@@ -3891,29 +3891,29 @@
         <v>6</v>
       </c>
       <c r="G98" t="n">
-        <v>36.9701843</v>
+        <v>22.4348717</v>
       </c>
       <c r="H98" t="n">
-        <v>28.63032659</v>
+        <v>46.53642921000001</v>
       </c>
       <c r="I98" t="n">
-        <v>31.80666656</v>
+        <v>20.61245457</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>98</v>
+        <v>3464</v>
       </c>
       <c r="B99" t="n">
-        <v>685550.3202805221</v>
+        <v>655303.9825604444</v>
       </c>
       <c r="C99" t="n">
-        <v>5230477.300002673</v>
+        <v>5195441.967192167</v>
       </c>
       <c r="D99" t="n">
         <v>53</v>
@@ -3927,13 +3927,13 @@
         <v>6</v>
       </c>
       <c r="G99" t="n">
-        <v>38.9701347</v>
+        <v>21.7325115</v>
       </c>
       <c r="H99" t="n">
-        <v>27.09273049</v>
+        <v>39.98653576</v>
       </c>
       <c r="I99" t="n">
-        <v>30.35600093</v>
+        <v>29.53847714</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -3943,13 +3943,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>99</v>
+        <v>3465</v>
       </c>
       <c r="B100" t="n">
-        <v>728294.8588682195</v>
+        <v>685550.3202805221</v>
       </c>
       <c r="C100" t="n">
-        <v>5269219.164837138</v>
+        <v>5230477.300002673</v>
       </c>
       <c r="D100" t="n">
         <v>53</v>
@@ -3963,29 +3963,29 @@
         <v>6</v>
       </c>
       <c r="G100" t="n">
-        <v>45.5016479</v>
+        <v>19.8684521</v>
       </c>
       <c r="H100" t="n">
-        <v>14.67461935</v>
+        <v>37.92551233</v>
       </c>
       <c r="I100" t="n">
-        <v>34.15152943</v>
+        <v>32.16154767</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>100</v>
+        <v>3481</v>
       </c>
       <c r="B101" t="n">
-        <v>747136.08103752</v>
+        <v>728294.8588682195</v>
       </c>
       <c r="C101" t="n">
-        <v>5198707.745745406</v>
+        <v>5269219.164837138</v>
       </c>
       <c r="D101" t="n">
         <v>53</v>
@@ -3999,13 +3999,13 @@
         <v>6</v>
       </c>
       <c r="G101" t="n">
-        <v>39.0899849</v>
+        <v>18.7729492</v>
       </c>
       <c r="H101" t="n">
-        <v>31.28924327</v>
+        <v>43.2027306</v>
       </c>
       <c r="I101" t="n">
-        <v>26.20247455</v>
+        <v>25.4293552</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -4015,13 +4015,13 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>101</v>
+        <v>3497</v>
       </c>
       <c r="B102" t="n">
-        <v>665367.2807458008</v>
+        <v>747136.08103752</v>
       </c>
       <c r="C102" t="n">
-        <v>5199272.526957285</v>
+        <v>5198707.745745406</v>
       </c>
       <c r="D102" t="n">
         <v>53</v>
@@ -4035,29 +4035,29 @@
         <v>6</v>
       </c>
       <c r="G102" t="n">
-        <v>37.8524323</v>
+        <v>24.9475136</v>
       </c>
       <c r="H102" t="n">
-        <v>28.80200243</v>
+        <v>43.95116589</v>
       </c>
       <c r="I102" t="n">
-        <v>30.02317452</v>
+        <v>21.21448151</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>102</v>
+        <v>3617</v>
       </c>
       <c r="B103" t="n">
-        <v>741823.7246266827</v>
+        <v>665367.2807458008</v>
       </c>
       <c r="C103" t="n">
-        <v>5251827.079217587</v>
+        <v>5199272.526957285</v>
       </c>
       <c r="D103" t="n">
         <v>53</v>
@@ -4071,29 +4071,29 @@
         <v>6</v>
       </c>
       <c r="G103" t="n">
-        <v>41.9009399</v>
+        <v>23.6182003</v>
       </c>
       <c r="H103" t="n">
-        <v>42.97053678</v>
+        <v>40.59466076</v>
       </c>
       <c r="I103" t="n">
-        <v>9.695464040000001</v>
+        <v>23.28079704</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>103</v>
+        <v>3648</v>
       </c>
       <c r="B104" t="n">
-        <v>654121.0508235083</v>
+        <v>741823.7246266827</v>
       </c>
       <c r="C104" t="n">
-        <v>5218688.638509148</v>
+        <v>5251827.079217587</v>
       </c>
       <c r="D104" t="n">
         <v>53</v>
@@ -4107,29 +4107,29 @@
         <v>6</v>
       </c>
       <c r="G104" t="n">
-        <v>36.0175819</v>
+        <v>19.0615826</v>
       </c>
       <c r="H104" t="n">
-        <v>26.36622357</v>
+        <v>50.55944673</v>
       </c>
       <c r="I104" t="n">
-        <v>34.03690415</v>
+        <v>23.09159817</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>104</v>
+        <v>3650</v>
       </c>
       <c r="B105" t="n">
-        <v>671532.0148173167</v>
+        <v>654121.0508235083</v>
       </c>
       <c r="C105" t="n">
-        <v>5180153.280060598</v>
+        <v>5218688.638509148</v>
       </c>
       <c r="D105" t="n">
         <v>53</v>
@@ -4143,13 +4143,13 @@
         <v>6</v>
       </c>
       <c r="G105" t="n">
-        <v>38.1058273</v>
+        <v>20.6612186</v>
       </c>
       <c r="H105" t="n">
-        <v>26.46427247</v>
+        <v>42.66708221</v>
       </c>
       <c r="I105" t="n">
-        <v>32.46379735</v>
+        <v>24.75124889</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -4159,13 +4159,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>105</v>
+        <v>3658</v>
       </c>
       <c r="B106" t="n">
-        <v>674913.3377661454</v>
+        <v>671532.0148173167</v>
       </c>
       <c r="C106" t="n">
-        <v>5205884.719966091</v>
+        <v>5180153.280060598</v>
       </c>
       <c r="D106" t="n">
         <v>53</v>
@@ -4179,13 +4179,13 @@
         <v>6</v>
       </c>
       <c r="G106" t="n">
-        <v>38.7159271</v>
+        <v>25.0099945</v>
       </c>
       <c r="H106" t="n">
-        <v>24.16074951</v>
+        <v>38.08568081</v>
       </c>
       <c r="I106" t="n">
-        <v>33.76164931</v>
+        <v>26.24794409</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -4195,13 +4195,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>106</v>
+        <v>3711</v>
       </c>
       <c r="B107" t="n">
-        <v>674169.7205953242</v>
+        <v>674913.3377661454</v>
       </c>
       <c r="C107" t="n">
-        <v>5231197.469777111</v>
+        <v>5205884.719966091</v>
       </c>
       <c r="D107" t="n">
         <v>53</v>
@@ -4215,29 +4215,29 @@
         <v>6</v>
       </c>
       <c r="G107" t="n">
-        <v>42.1209679</v>
+        <v>25.7869797</v>
       </c>
       <c r="H107" t="n">
-        <v>29.24413393</v>
+        <v>40.83172474</v>
       </c>
       <c r="I107" t="n">
-        <v>24.79656122</v>
+        <v>18.53667396</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>107</v>
+        <v>3728</v>
       </c>
       <c r="B108" t="n">
-        <v>718189.39552422</v>
+        <v>674169.7205953242</v>
       </c>
       <c r="C108" t="n">
-        <v>5230955.424933686</v>
+        <v>5231197.469777111</v>
       </c>
       <c r="D108" t="n">
         <v>53</v>
@@ -4251,29 +4251,29 @@
         <v>6</v>
       </c>
       <c r="G108" t="n">
-        <v>44.480381</v>
+        <v>23.5121098</v>
       </c>
       <c r="H108" t="n">
-        <v>20.52314185</v>
+        <v>40.28833115</v>
       </c>
       <c r="I108" t="n">
-        <v>27.2017155</v>
+        <v>20.47265515</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>108</v>
+        <v>3834</v>
       </c>
       <c r="B109" t="n">
-        <v>657411.9930789657</v>
+        <v>718189.39552422</v>
       </c>
       <c r="C109" t="n">
-        <v>5199918.265982053</v>
+        <v>5230955.424933686</v>
       </c>
       <c r="D109" t="n">
         <v>53</v>
@@ -4287,29 +4287,29 @@
         <v>6</v>
       </c>
       <c r="G109" t="n">
-        <v>41.2122459</v>
+        <v>15.4477758</v>
       </c>
       <c r="H109" t="n">
-        <v>27.98653869</v>
+        <v>44.2278747</v>
       </c>
       <c r="I109" t="n">
-        <v>26.63967913</v>
+        <v>32.9917183</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>109</v>
+        <v>3857</v>
       </c>
       <c r="B110" t="n">
-        <v>744733.1181537323</v>
+        <v>657411.9930789657</v>
       </c>
       <c r="C110" t="n">
-        <v>5265679.359199969</v>
+        <v>5199918.265982053</v>
       </c>
       <c r="D110" t="n">
         <v>53</v>
@@ -4323,13 +4323,13 @@
         <v>6</v>
       </c>
       <c r="G110" t="n">
-        <v>39.8147354</v>
+        <v>22.747118</v>
       </c>
       <c r="H110" t="n">
-        <v>30.15258642</v>
+        <v>40.2765501</v>
       </c>
       <c r="I110" t="n">
-        <v>26.4612673</v>
+        <v>23.5487329</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -4339,13 +4339,13 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>110</v>
+        <v>3862</v>
       </c>
       <c r="B111" t="n">
-        <v>686319.5929781483</v>
+        <v>744733.1181537323</v>
       </c>
       <c r="C111" t="n">
-        <v>5230325.499253339</v>
+        <v>5265679.359199969</v>
       </c>
       <c r="D111" t="n">
         <v>53</v>
@@ -4359,29 +4359,29 @@
         <v>6</v>
       </c>
       <c r="G111" t="n">
-        <v>35.3948517</v>
+        <v>21.0978813</v>
       </c>
       <c r="H111" t="n">
-        <v>27.86448598</v>
+        <v>45.30791536</v>
       </c>
       <c r="I111" t="n">
-        <v>34.52467809</v>
+        <v>21.64013234</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>111</v>
+        <v>3875</v>
       </c>
       <c r="B112" t="n">
-        <v>648996.4845544319</v>
+        <v>686319.5929781483</v>
       </c>
       <c r="C112" t="n">
-        <v>5189252.783322779</v>
+        <v>5230325.499253339</v>
       </c>
       <c r="D112" t="n">
         <v>53</v>
@@ -4395,13 +4395,13 @@
         <v>6</v>
       </c>
       <c r="G112" t="n">
-        <v>40.9112701</v>
+        <v>18.044899</v>
       </c>
       <c r="H112" t="n">
-        <v>23.113717358</v>
+        <v>42.12294047</v>
       </c>
       <c r="I112" t="n">
-        <v>31.1305317</v>
+        <v>28.65559823</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -4411,13 +4411,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>112</v>
+        <v>3878</v>
       </c>
       <c r="B113" t="n">
-        <v>664922.3475562334</v>
+        <v>648996.4845544319</v>
       </c>
       <c r="C113" t="n">
-        <v>5200031.431863848</v>
+        <v>5189252.783322779</v>
       </c>
       <c r="D113" t="n">
         <v>53</v>
@@ -4431,13 +4431,13 @@
         <v>6</v>
       </c>
       <c r="G113" t="n">
-        <v>42.5698853</v>
+        <v>20.7586918</v>
       </c>
       <c r="H113" t="n">
-        <v>24.21883249</v>
+        <v>40.44658869</v>
       </c>
       <c r="I113" t="n">
-        <v>27.80924704</v>
+        <v>27.18955591</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -4447,13 +4447,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>113</v>
+        <v>3909</v>
       </c>
       <c r="B114" t="n">
-        <v>678905.6922394073</v>
+        <v>664922.3475562334</v>
       </c>
       <c r="C114" t="n">
-        <v>5220837.49141793</v>
+        <v>5200031.431863848</v>
       </c>
       <c r="D114" t="n">
         <v>53</v>
@@ -4467,13 +4467,13 @@
         <v>6</v>
       </c>
       <c r="G114" t="n">
-        <v>40.2928505</v>
+        <v>19.6271992</v>
       </c>
       <c r="H114" t="n">
-        <v>25.85014592</v>
+        <v>37.73565543</v>
       </c>
       <c r="I114" t="n">
-        <v>30.09615937</v>
+        <v>27.89312877</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -4483,13 +4483,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>114</v>
+        <v>3920</v>
       </c>
       <c r="B115" t="n">
-        <v>730274.8555373861</v>
+        <v>678905.6922394073</v>
       </c>
       <c r="C115" t="n">
-        <v>5253764.453231516</v>
+        <v>5220837.49141793</v>
       </c>
       <c r="D115" t="n">
         <v>53</v>
@@ -4503,29 +4503,29 @@
         <v>6</v>
       </c>
       <c r="G115" t="n">
-        <v>42.3136406</v>
+        <v>22.8591499</v>
       </c>
       <c r="H115" t="n">
-        <v>19.698102348</v>
+        <v>39.40391049</v>
       </c>
       <c r="I115" t="n">
-        <v>30.93473754</v>
+        <v>21.06445811</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>115</v>
+        <v>3933</v>
       </c>
       <c r="B116" t="n">
-        <v>655724.2001521577</v>
+        <v>730274.8555373861</v>
       </c>
       <c r="C116" t="n">
-        <v>5199911.66202464</v>
+        <v>5253764.453231516</v>
       </c>
       <c r="D116" t="n">
         <v>53</v>
@@ -4539,13 +4539,13 @@
         <v>6</v>
       </c>
       <c r="G116" t="n">
-        <v>37.9912682</v>
+        <v>17.1636791</v>
       </c>
       <c r="H116" t="n">
-        <v>27.514334848</v>
+        <v>41.39958022</v>
       </c>
       <c r="I116" t="n">
-        <v>29.52376485</v>
+        <v>23.96246982</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -4555,13 +4555,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>116</v>
+        <v>4003</v>
       </c>
       <c r="B117" t="n">
-        <v>741827.123305176</v>
+        <v>655724.2001521577</v>
       </c>
       <c r="C117" t="n">
-        <v>5271752.397822999</v>
+        <v>5199911.66202464</v>
       </c>
       <c r="D117" t="n">
         <v>53</v>
@@ -4575,29 +4575,29 @@
         <v>6</v>
       </c>
       <c r="G117" t="n">
-        <v>42.360424</v>
+        <v>16.390934</v>
       </c>
       <c r="H117" t="n">
-        <v>19.57400574</v>
+        <v>38.35230826</v>
       </c>
       <c r="I117" t="n">
-        <v>33.38981765</v>
+        <v>30.02871699</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>117</v>
+        <v>4010</v>
       </c>
       <c r="B118" t="n">
-        <v>687449.596650009</v>
+        <v>741827.123305176</v>
       </c>
       <c r="C118" t="n">
-        <v>5230513.959001321</v>
+        <v>5271752.397822999</v>
       </c>
       <c r="D118" t="n">
         <v>53</v>
@@ -4611,29 +4611,29 @@
         <v>6</v>
       </c>
       <c r="G118" t="n">
-        <v>35.4244576</v>
+        <v>17.8771496</v>
       </c>
       <c r="H118" t="n">
-        <v>31.46882611</v>
+        <v>47.1110611</v>
       </c>
       <c r="I118" t="n">
-        <v>31.11557332</v>
+        <v>23.6447334</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>118</v>
+        <v>4057</v>
       </c>
       <c r="B119" t="n">
-        <v>762760.9130496685</v>
+        <v>687449.596650009</v>
       </c>
       <c r="C119" t="n">
-        <v>5251024.227257187</v>
+        <v>5230513.959001321</v>
       </c>
       <c r="D119" t="n">
         <v>53</v>
@@ -4647,13 +4647,13 @@
         <v>6</v>
       </c>
       <c r="G119" t="n">
-        <v>37.5617218</v>
+        <v>17.6429749</v>
       </c>
       <c r="H119" t="n">
-        <v>29.780091648</v>
+        <v>43.5205288</v>
       </c>
       <c r="I119" t="n">
-        <v>28.46152043</v>
+        <v>25.8670425</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -4663,13 +4663,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>119</v>
+        <v>4116</v>
       </c>
       <c r="B120" t="n">
-        <v>735017.7678975898</v>
+        <v>762760.9130496685</v>
       </c>
       <c r="C120" t="n">
-        <v>5255079.280892943</v>
+        <v>5251024.227257187</v>
       </c>
       <c r="D120" t="n">
         <v>53</v>
@@ -4683,29 +4683,29 @@
         <v>6</v>
       </c>
       <c r="G120" t="n">
-        <v>39.2621536</v>
+        <v>19.1293335</v>
       </c>
       <c r="H120" t="n">
-        <v>26.6414641</v>
+        <v>44.70233489</v>
       </c>
       <c r="I120" t="n">
-        <v>30.28498042</v>
+        <v>22.19821971</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>120</v>
+        <v>4144</v>
       </c>
       <c r="B121" t="n">
-        <v>686834.1461637516</v>
+        <v>735017.7678975898</v>
       </c>
       <c r="C121" t="n">
-        <v>5229708.584528405</v>
+        <v>5255079.280892943</v>
       </c>
       <c r="D121" t="n">
         <v>53</v>
@@ -4719,29 +4719,30 @@
         <v>6</v>
       </c>
       <c r="G121" t="n">
-        <v>44.5530052</v>
+        <v>12.9394808</v>
       </c>
       <c r="H121" t="n">
-        <v>15.60992128</v>
+        <v>49.11351739</v>
       </c>
       <c r="I121" t="n">
-        <v>33.44658250000001</v>
+        <v>25.96275561</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>121</v>
+        <v>4146</v>
       </c>
       <c r="B122" t="n">
-        <v>739120.1726322985</v>
+        <v>686834.1461637516</v>
       </c>
       <c r="C122" t="n">
-        <v>5242280.512254008</v>
+        <v>5229708.584528405</v>
       </c>
       <c r="D122" t="n">
         <v>53</v>
@@ -4755,13 +4756,13 @@
         <v>6</v>
       </c>
       <c r="G122" t="n">
-        <v>36.3558769</v>
+        <v>19.6522617</v>
       </c>
       <c r="H122" t="n">
-        <v>29.76677466</v>
+        <v>40.47222293</v>
       </c>
       <c r="I122" t="n">
-        <v>31.04658145</v>
+        <v>22.88779487</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -4771,13 +4772,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>122</v>
+        <v>4156</v>
       </c>
       <c r="B123" t="n">
-        <v>724187.8257881664</v>
+        <v>739120.1726322985</v>
       </c>
       <c r="C123" t="n">
-        <v>5197322.896443895</v>
+        <v>5242280.512254008</v>
       </c>
       <c r="D123" t="n">
         <v>53</v>
@@ -4791,29 +4792,29 @@
         <v>6</v>
       </c>
       <c r="G123" t="n">
-        <v>41.6602173</v>
+        <v>18.7118931</v>
       </c>
       <c r="H123" t="n">
-        <v>20.81512717</v>
+        <v>46.46369455</v>
       </c>
       <c r="I123" t="n">
-        <v>33.14960857</v>
+        <v>19.94470505</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>123</v>
+        <v>4159</v>
       </c>
       <c r="B124" t="n">
-        <v>735004.4034387501</v>
+        <v>724187.8257881664</v>
       </c>
       <c r="C124" t="n">
-        <v>5255057.791167965</v>
+        <v>5197322.896443895</v>
       </c>
       <c r="D124" t="n">
         <v>53</v>
@@ -4827,29 +4828,29 @@
         <v>6</v>
       </c>
       <c r="G124" t="n">
-        <v>39.0574608</v>
+        <v>21.0467281</v>
       </c>
       <c r="H124" t="n">
-        <v>25.76512384</v>
+        <v>42.84181692</v>
       </c>
       <c r="I124" t="n">
-        <v>29.86246165</v>
+        <v>21.90069868</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>124</v>
+        <v>4184</v>
       </c>
       <c r="B125" t="n">
-        <v>734596.4672708525</v>
+        <v>735004.4034387501</v>
       </c>
       <c r="C125" t="n">
-        <v>5255058.960597231</v>
+        <v>5255057.791167965</v>
       </c>
       <c r="D125" t="n">
         <v>53</v>
@@ -4863,29 +4864,29 @@
         <v>6</v>
       </c>
       <c r="G125" t="n">
-        <v>37.4158058</v>
+        <v>15.0347385</v>
       </c>
       <c r="H125" t="n">
-        <v>26.63273951</v>
+        <v>44.59956661</v>
       </c>
       <c r="I125" t="n">
-        <v>32.51994058</v>
+        <v>28.08931619</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>125</v>
+        <v>4185</v>
       </c>
       <c r="B126" t="n">
-        <v>663164.7399945648</v>
+        <v>734596.4672708525</v>
       </c>
       <c r="C126" t="n">
-        <v>5198917.273642386</v>
+        <v>5255058.960597231</v>
       </c>
       <c r="D126" t="n">
         <v>53</v>
@@ -4899,29 +4900,29 @@
         <v>6</v>
       </c>
       <c r="G126" t="n">
-        <v>42.1008377</v>
+        <v>15.0347385</v>
       </c>
       <c r="H126" t="n">
-        <v>29.80391888</v>
+        <v>44.59956661</v>
       </c>
       <c r="I126" t="n">
-        <v>20.42906631</v>
+        <v>28.08931619</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>126</v>
+        <v>4215</v>
       </c>
       <c r="B127" t="n">
-        <v>676020.9770205432</v>
+        <v>663164.7399945648</v>
       </c>
       <c r="C127" t="n">
-        <v>5200345.989964132</v>
+        <v>5198917.273642386</v>
       </c>
       <c r="D127" t="n">
         <v>53</v>
@@ -4935,29 +4936,29 @@
         <v>6</v>
       </c>
       <c r="G127" t="n">
-        <v>42.640255</v>
+        <v>19.2007389</v>
       </c>
       <c r="H127" t="n">
-        <v>24.71756342</v>
+        <v>49.54011549000001</v>
       </c>
       <c r="I127" t="n">
-        <v>26.86789724</v>
+        <v>15.73727021</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>127</v>
+        <v>4223</v>
       </c>
       <c r="B128" t="n">
-        <v>686033.3828083968</v>
+        <v>676020.9770205432</v>
       </c>
       <c r="C128" t="n">
-        <v>5211771.951077429</v>
+        <v>5200345.989964132</v>
       </c>
       <c r="D128" t="n">
         <v>53</v>
@@ -4971,29 +4972,29 @@
         <v>6</v>
       </c>
       <c r="G128" t="n">
-        <v>38.7224808</v>
+        <v>15.3227568</v>
       </c>
       <c r="H128" t="n">
-        <v>32.38944416</v>
+        <v>39.72832444</v>
       </c>
       <c r="I128" t="n">
-        <v>23.56468623</v>
+        <v>24.38628046</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>128</v>
+        <v>4306</v>
       </c>
       <c r="B129" t="n">
-        <v>730276.5278267398</v>
+        <v>686033.3828083968</v>
       </c>
       <c r="C129" t="n">
-        <v>5253767.136781914</v>
+        <v>5211771.951077429</v>
       </c>
       <c r="D129" t="n">
         <v>53</v>
@@ -5007,29 +5008,29 @@
         <v>6</v>
       </c>
       <c r="G129" t="n">
-        <v>36.1913414</v>
+        <v>11.9095507</v>
       </c>
       <c r="H129" t="n">
-        <v>33.97753414</v>
+        <v>46.24245149000001</v>
       </c>
       <c r="I129" t="n">
-        <v>26.97143861</v>
+        <v>27.24514311</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>129</v>
+        <v>4353</v>
       </c>
       <c r="B130" t="n">
-        <v>669893.5580785442</v>
+        <v>730276.5278267398</v>
       </c>
       <c r="C130" t="n">
-        <v>5213133.624683152</v>
+        <v>5253767.136781914</v>
       </c>
       <c r="D130" t="n">
         <v>53</v>
@@ -5043,29 +5044,29 @@
         <v>6</v>
       </c>
       <c r="G130" t="n">
-        <v>41.9597855</v>
+        <v>9.82736111</v>
       </c>
       <c r="H130" t="n">
-        <v>24.54285695</v>
+        <v>41.67713755</v>
       </c>
       <c r="I130" t="n">
-        <v>26.23021446</v>
+        <v>26.76147535</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>130</v>
+        <v>4376</v>
       </c>
       <c r="B131" t="n">
-        <v>760788.7880423053</v>
+        <v>669893.5580785442</v>
       </c>
       <c r="C131" t="n">
-        <v>5250405.864394865</v>
+        <v>5213133.624683152</v>
       </c>
       <c r="D131" t="n">
         <v>53</v>
@@ -5079,29 +5080,30 @@
         <v>6</v>
       </c>
       <c r="G131" t="n">
-        <v>41.49617</v>
+        <v>15.523097</v>
       </c>
       <c r="H131" t="n">
-        <v>28.18851673</v>
+        <v>44.22297116</v>
       </c>
       <c r="I131" t="n">
-        <v>25.74171489</v>
+        <v>19.18922974</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>131</v>
+        <v>4391</v>
       </c>
       <c r="B132" t="n">
-        <v>656408.0186970453</v>
+        <v>760788.7880423053</v>
       </c>
       <c r="C132" t="n">
-        <v>5196985.869935837</v>
+        <v>5250405.864394865</v>
       </c>
       <c r="D132" t="n">
         <v>53</v>
@@ -5115,29 +5117,30 @@
         <v>6</v>
       </c>
       <c r="G132" t="n">
-        <v>35.6689682</v>
+        <v>14.3736515</v>
       </c>
       <c r="H132" t="n">
-        <v>31.38192745</v>
+        <v>56.05400389</v>
       </c>
       <c r="I132" t="n">
-        <v>29.66798761</v>
+        <v>15.64379671</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>132</v>
+        <v>4395</v>
       </c>
       <c r="B133" t="n">
-        <v>726461.8451933023</v>
+        <v>656408.0186970453</v>
       </c>
       <c r="C133" t="n">
-        <v>5261223.342380521</v>
+        <v>5196985.869935837</v>
       </c>
       <c r="D133" t="n">
         <v>53</v>
@@ -5151,29 +5154,30 @@
         <v>6</v>
       </c>
       <c r="G133" t="n">
-        <v>38.3202362</v>
+        <v>10.8893194</v>
       </c>
       <c r="H133" t="n">
-        <v>28.78317104</v>
+        <v>47.5270207</v>
       </c>
       <c r="I133" t="n">
-        <v>30.37848801</v>
+        <v>24.3298977</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>133</v>
+        <v>4416</v>
       </c>
       <c r="B134" t="n">
-        <v>650877.1607492804</v>
+        <v>726461.8451933023</v>
       </c>
       <c r="C134" t="n">
-        <v>5190864.402486985</v>
+        <v>5261223.342380521</v>
       </c>
       <c r="D134" t="n">
         <v>53</v>
@@ -5187,29 +5191,30 @@
         <v>6</v>
       </c>
       <c r="G134" t="n">
-        <v>42.0021439</v>
+        <v>12.2693844</v>
       </c>
       <c r="H134" t="n">
-        <v>24.73401</v>
+        <v>52.01069599</v>
       </c>
       <c r="I134" t="n">
-        <v>26.36687608</v>
+        <v>20.37628021</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>134</v>
+        <v>4437</v>
       </c>
       <c r="B135" t="n">
-        <v>686063.1745849112</v>
+        <v>650877.1607492804</v>
       </c>
       <c r="C135" t="n">
-        <v>5231088.784002419</v>
+        <v>5190864.402486985</v>
       </c>
       <c r="D135" t="n">
         <v>53</v>
@@ -5223,29 +5228,30 @@
         <v>6</v>
       </c>
       <c r="G135" t="n">
-        <v>39.3789902</v>
+        <v>12.2470608</v>
       </c>
       <c r="H135" t="n">
-        <v>25.47317143</v>
+        <v>50.37782538</v>
       </c>
       <c r="I135" t="n">
-        <v>30.57620222</v>
+        <v>18.41655002</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>135</v>
+        <v>4445</v>
       </c>
       <c r="B136" t="n">
-        <v>734782.9848403865</v>
+        <v>686063.1745849112</v>
       </c>
       <c r="C136" t="n">
-        <v>5294973.135268902</v>
+        <v>5231088.784002419</v>
       </c>
       <c r="D136" t="n">
         <v>53</v>
@@ -5259,29 +5265,30 @@
         <v>6</v>
       </c>
       <c r="G136" t="n">
-        <v>38.514286</v>
+        <v>9.59523869</v>
       </c>
       <c r="H136" t="n">
-        <v>32.53970024</v>
+        <v>46.41130276</v>
       </c>
       <c r="I136" t="n">
-        <v>23.75466421</v>
+        <v>23.96163544</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>136</v>
+        <v>4446</v>
       </c>
       <c r="B137" t="n">
-        <v>753811.6968603041</v>
+        <v>734782.9848403865</v>
       </c>
       <c r="C137" t="n">
-        <v>5259888.643299118</v>
+        <v>5294973.135268902</v>
       </c>
       <c r="D137" t="n">
         <v>53</v>
@@ -5295,29 +5302,30 @@
         <v>6</v>
       </c>
       <c r="G137" t="n">
-        <v>37.2690239</v>
+        <v>15.0556517</v>
       </c>
       <c r="H137" t="n">
-        <v>27.5964128</v>
+        <v>49.11666092</v>
       </c>
       <c r="I137" t="n">
-        <v>31.82950842</v>
+        <v>16.00370518</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>137</v>
+        <v>4448</v>
       </c>
       <c r="B138" t="n">
-        <v>736495.2180807255</v>
+        <v>753811.6968603041</v>
       </c>
       <c r="C138" t="n">
-        <v>5252723.100318569</v>
+        <v>5259888.643299118</v>
       </c>
       <c r="D138" t="n">
         <v>53</v>
@@ -5331,29 +5339,30 @@
         <v>6</v>
       </c>
       <c r="G138" t="n">
-        <v>36.5326576</v>
+        <v>7.81808853</v>
       </c>
       <c r="H138" t="n">
-        <v>29.67470483</v>
+        <v>58.32527843</v>
       </c>
       <c r="I138" t="n">
-        <v>29.67521969</v>
+        <v>17.19888767</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>138</v>
+        <v>4458</v>
       </c>
       <c r="B139" t="n">
-        <v>760794.0235777451</v>
+        <v>736495.2180807255</v>
       </c>
       <c r="C139" t="n">
-        <v>5250414.355914723</v>
+        <v>5252723.100318569</v>
       </c>
       <c r="D139" t="n">
         <v>53</v>
@@ -5367,29 +5376,30 @@
         <v>6</v>
       </c>
       <c r="G139" t="n">
-        <v>37.3745651</v>
+        <v>12.4036989</v>
       </c>
       <c r="H139" t="n">
-        <v>27.94483401</v>
+        <v>48.49274121</v>
       </c>
       <c r="I139" t="n">
-        <v>31.22215466</v>
+        <v>22.09044589</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>139</v>
+        <v>4487</v>
       </c>
       <c r="B140" t="n">
-        <v>750453.8388643281</v>
+        <v>760794.0235777451</v>
       </c>
       <c r="C140" t="n">
-        <v>5289285.25019257</v>
+        <v>5250414.355914723</v>
       </c>
       <c r="D140" t="n">
         <v>53</v>
@@ -5403,29 +5413,30 @@
         <v>6</v>
       </c>
       <c r="G140" t="n">
-        <v>34.593502</v>
+        <v>9.825957300000001</v>
       </c>
       <c r="H140" t="n">
-        <v>31.741215562</v>
+        <v>53.63208236</v>
       </c>
       <c r="I140" t="n">
-        <v>30.1596703</v>
+        <v>16.38137974</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>140</v>
+        <v>4497</v>
       </c>
       <c r="B141" t="n">
-        <v>688535.861878559</v>
+        <v>750453.8388643281</v>
       </c>
       <c r="C141" t="n">
-        <v>5229466.978119095</v>
+        <v>5289285.25019257</v>
       </c>
       <c r="D141" t="n">
         <v>53</v>
@@ -5439,29 +5450,30 @@
         <v>6</v>
       </c>
       <c r="G141" t="n">
-        <v>34.4631729</v>
+        <v>6.72824621</v>
       </c>
       <c r="H141" t="n">
-        <v>28.46950551</v>
+        <v>54.99832799</v>
       </c>
       <c r="I141" t="n">
-        <v>31.54027919</v>
+        <v>15.28889011</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>141</v>
+        <v>4513</v>
       </c>
       <c r="B142" t="n">
-        <v>736478.5504251951</v>
+        <v>688535.861878559</v>
       </c>
       <c r="C142" t="n">
-        <v>5252696.297442834</v>
+        <v>5229466.978119095</v>
       </c>
       <c r="D142" t="n">
         <v>53</v>
@@ -5475,29 +5487,30 @@
         <v>6</v>
       </c>
       <c r="G142" t="n">
-        <v>31.8878708</v>
+        <v>13.0352125</v>
       </c>
       <c r="H142" t="n">
-        <v>35.32021388</v>
+        <v>47.69985969</v>
       </c>
       <c r="I142" t="n">
-        <v>29.82118152</v>
+        <v>23.12815091</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>142</v>
+        <v>4521</v>
       </c>
       <c r="B143" t="n">
-        <v>683877.0045079225</v>
+        <v>736478.5504251951</v>
       </c>
       <c r="C143" t="n">
-        <v>5230245.623186642</v>
+        <v>5252696.297442834</v>
       </c>
       <c r="D143" t="n">
         <v>53</v>
@@ -5511,29 +5524,30 @@
         <v>6</v>
       </c>
       <c r="G143" t="n">
-        <v>32.8636513</v>
+        <v>9.51768684</v>
       </c>
       <c r="H143" t="n">
-        <v>29.711631209</v>
+        <v>46.01710534</v>
       </c>
       <c r="I143" t="n">
-        <v>33.50454525</v>
+        <v>21.90453316</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>143</v>
+        <v>4532</v>
       </c>
       <c r="B144" t="n">
-        <v>709848.7234826094</v>
+        <v>683877.0045079225</v>
       </c>
       <c r="C144" t="n">
-        <v>5245933.699188704</v>
+        <v>5230245.623186642</v>
       </c>
       <c r="D144" t="n">
         <v>53</v>
@@ -5547,29 +5561,30 @@
         <v>6</v>
       </c>
       <c r="G144" t="n">
-        <v>34.5425682</v>
+        <v>8.66450691</v>
       </c>
       <c r="H144" t="n">
-        <v>33.45418593</v>
+        <v>44.88088206</v>
       </c>
       <c r="I144" t="n">
-        <v>30.04554749</v>
+        <v>20.73393074</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>144</v>
+        <v>4543</v>
       </c>
       <c r="B145" t="n">
-        <v>750267.1816088931</v>
+        <v>709848.7234826094</v>
       </c>
       <c r="C145" t="n">
-        <v>5288816.053446599</v>
+        <v>5245933.699188704</v>
       </c>
       <c r="D145" t="n">
         <v>53</v>
@@ -5583,29 +5598,30 @@
         <v>6</v>
       </c>
       <c r="G145" t="n">
-        <v>54.5726204</v>
+        <v>9.552830699999999</v>
       </c>
       <c r="H145" t="n">
-        <v>9.242850193000001</v>
+        <v>51.17318038</v>
       </c>
       <c r="I145" t="n">
-        <v>22.90808945</v>
+        <v>14.61067412</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>quartz-rich granitoid</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>145</v>
+        <v>4548</v>
       </c>
       <c r="B146" t="n">
-        <v>661855.7997309775</v>
+        <v>750267.1816088931</v>
       </c>
       <c r="C146" t="n">
-        <v>5207601.765115734</v>
+        <v>5288816.053446599</v>
       </c>
       <c r="D146" t="n">
         <v>53</v>
@@ -5619,29 +5635,30 @@
         <v>6</v>
       </c>
       <c r="G146" t="n">
-        <v>41.0317535</v>
+        <v>14.1107893</v>
       </c>
       <c r="H146" t="n">
-        <v>27.320267079</v>
+        <v>53.70404533</v>
       </c>
       <c r="I146" t="n">
-        <v>25.74688095</v>
+        <v>8.840199950000001</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>146</v>
+        <v>4551</v>
       </c>
       <c r="B147" t="n">
-        <v>671281.4881445265</v>
+        <v>661855.7997309775</v>
       </c>
       <c r="C147" t="n">
-        <v>5177993.026718562</v>
+        <v>5207601.765115734</v>
       </c>
       <c r="D147" t="n">
         <v>53</v>
@@ -5655,29 +5672,30 @@
         <v>6</v>
       </c>
       <c r="G147" t="n">
-        <v>39.742012</v>
+        <v>8.98383713</v>
       </c>
       <c r="H147" t="n">
-        <v>34.500514087</v>
+        <v>47.99499225</v>
       </c>
       <c r="I147" t="n">
-        <v>19.82622183</v>
+        <v>20.89962675</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>147</v>
+        <v>4587</v>
       </c>
       <c r="B148" t="n">
-        <v>735289.6098707286</v>
+        <v>671281.4881445265</v>
       </c>
       <c r="C148" t="n">
-        <v>5294807.575874435</v>
+        <v>5177993.026718562</v>
       </c>
       <c r="D148" t="n">
         <v>53</v>
@@ -5691,29 +5709,29 @@
         <v>6</v>
       </c>
       <c r="G148" t="n">
-        <v>34.818058</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>32.87524201</v>
+        <v>42.77989939</v>
       </c>
       <c r="I148" t="n">
-        <v>27.97482869</v>
+        <v>29.17026731</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>monzonite</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>148</v>
+        <v>4595</v>
       </c>
       <c r="B149" t="n">
-        <v>670787.2186118332</v>
+        <v>735289.6098707286</v>
       </c>
       <c r="C149" t="n">
-        <v>5216879.553222661</v>
+        <v>5294807.575874435</v>
       </c>
       <c r="D149" t="n">
         <v>53</v>
@@ -5727,29 +5745,30 @@
         <v>6</v>
       </c>
       <c r="G149" t="n">
-        <v>39.027565</v>
+        <v>7.14457178</v>
       </c>
       <c r="H149" t="n">
-        <v>21.638879958</v>
+        <v>53.40739532</v>
       </c>
       <c r="I149" t="n">
-        <v>34.28813174</v>
+        <v>17.26142028</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>149</v>
+        <v>4597</v>
       </c>
       <c r="B150" t="n">
-        <v>746609.482851906</v>
+        <v>670787.2186118332</v>
       </c>
       <c r="C150" t="n">
-        <v>5293855.929015783</v>
+        <v>5216879.553222661</v>
       </c>
       <c r="D150" t="n">
         <v>53</v>
@@ -5763,53 +5782,91 @@
         <v>6</v>
       </c>
       <c r="G150" t="n">
-        <v>39.3121071</v>
+        <v>7.04529333</v>
       </c>
       <c r="H150" t="n">
-        <v>26.12555666</v>
+        <v>52.20542263999999</v>
       </c>
       <c r="I150" t="n">
-        <v>29.27114753</v>
+        <v>13.72419716</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>150</v>
+        <v>4638</v>
       </c>
       <c r="B151" t="n">
+        <v>746609.482851906</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5293855.929015783</v>
+      </c>
+      <c r="D151" t="n">
+        <v>53</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>6</v>
+      </c>
+      <c r="G151" t="n">
+        <v>6.64514256</v>
+      </c>
+      <c r="H151" t="n">
+        <v>62.55613477</v>
+      </c>
+      <c r="I151" t="n">
+        <v>9.68368712</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>4656</v>
+      </c>
+      <c r="B152" t="n">
         <v>658613.9367031463</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C152" t="n">
         <v>5200780.732085239</v>
       </c>
-      <c r="D151" t="n">
-        <v>53</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F151" t="n">
-        <v>6</v>
-      </c>
-      <c r="G151" t="n">
-        <v>36.3561325</v>
-      </c>
-      <c r="H151" t="n">
-        <v>28.983989</v>
-      </c>
-      <c r="I151" t="n">
-        <v>30.76006511</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>monzo granite</t>
+      <c r="D152" t="n">
+        <v>53</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>6</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>52.35559922</v>
+      </c>
+      <c r="I152" t="n">
+        <v>12.03913136</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>monzodiorite monzogabbro</t>
         </is>
       </c>
     </row>
